--- a/Algorithm_tester/data_autosave/real_sex_arr.xlsx
+++ b/Algorithm_tester/data_autosave/real_sex_arr.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,11 @@
           <t>positive_predictivity</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heart_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -507,19 +512,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>171.539306640625</v>
+        <v>151.4708995819092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1900826446280992</v>
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="3">
@@ -529,19 +537,22 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4502814569536424</v>
+        <v>0.8677777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>215.3624296188354</v>
+        <v>151.8949627876282</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8635026737967915</v>
+        <v>0.9465653153153153</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2928578235182009</v>
+        <v>0.9376838235294118</v>
+      </c>
+      <c r="I3" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="4">
@@ -551,19 +562,22 @@
         <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.9530916844349679</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>255.2810907363892</v>
+        <v>158.5153341293335</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.96875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9648809523809524</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="5">
@@ -573,19 +587,22 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.9789263531499557</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>284.2369079589844</v>
+        <v>161.0523462295532</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9710084033613445</v>
+      </c>
+      <c r="I5" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +612,22 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9844932844932845</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>312.0529651641846</v>
+        <v>163.2494926452637</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9763081395348837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="7">
@@ -617,19 +637,22 @@
         <v>0.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9994736842105263</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>385.9925746917725</v>
+        <v>164.8808598518372</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="8">
@@ -645,13 +668,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>767.8539752960205</v>
+        <v>165.7660007476807</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +691,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3287671232876712</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>172.5378036499023</v>
+        <v>149.6777534484863</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1983471074380165</v>
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="10">
@@ -687,19 +716,22 @@
         <v>0.05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5285838212968987</v>
+        <v>0.9422459893048128</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>210.4304909706116</v>
+        <v>152.1504521369934</v>
       </c>
       <c r="G10" t="n">
-        <v>0.875</v>
+        <v>0.9327346041055717</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3649071358748778</v>
+        <v>0.9622252747252747</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="11">
@@ -709,19 +741,22 @@
         <v>0.25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9768763213530656</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>244.3171739578247</v>
+        <v>155.3784012794495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9745192307692307</v>
       </c>
       <c r="H11" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9840425531914894</v>
+      </c>
+      <c r="I11" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="12">
@@ -731,19 +766,22 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9866666666666667</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>267.2864198684692</v>
+        <v>159.7130298614502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.9821371610845295</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="13">
@@ -753,19 +791,22 @@
         <v>0.75</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9878774356686003</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>296.2071895599365</v>
+        <v>162.4991297721863</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="14">
@@ -775,19 +816,22 @@
         <v>0.95</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9910692538767557</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>352.8642416000366</v>
+        <v>164.766252040863</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="15">
@@ -803,13 +847,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>820.9195137023926</v>
+        <v>165.4198169708252</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="16">
@@ -833,13 +880,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>63.05408477783203</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="17">
@@ -849,19 +899,22 @@
         <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3490613617259737</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>86.76791191101074</v>
+        <v>64.12794589996338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2177222222222223</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9177142857142857</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="18">
@@ -871,19 +924,22 @@
         <v>0.25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9177839615481913</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>104.7948002815247</v>
+        <v>65.79685211181641</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8490287162162162</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="19">
@@ -893,19 +949,22 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.9496366401892851</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>116.1489486694336</v>
+        <v>66.680908203125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9041053921568627</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="20">
@@ -915,19 +974,22 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.9819401444788441</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>128.3490061759949</v>
+        <v>67.19255447387695</v>
       </c>
       <c r="G20" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9652093596059114</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="21">
@@ -937,19 +999,22 @@
         <v>0.95</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.9885566119273984</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>160.7674837112427</v>
+        <v>67.86923408508301</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.9773737373737373</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="22">
@@ -959,19 +1024,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>299.8476028442383</v>
+        <v>67.96002388000488</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="23">
@@ -985,19 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>61.35201454162598</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="24">
@@ -1007,19 +1078,22 @@
         <v>0.05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4680851063829787</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>84.76675748825073</v>
+        <v>63.29864263534546</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3729166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="25">
@@ -1029,19 +1103,22 @@
         <v>0.25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9276315789473684</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.73610734939575</v>
+        <v>64.23676013946533</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8481337161607876</v>
+        <v>0.8696013289036544</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="26">
@@ -1051,19 +1128,22 @@
         <v>0.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9739864864864864</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>108.6729764938354</v>
+        <v>65.22214412689209</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.949874686716792</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="27">
@@ -1073,19 +1153,22 @@
         <v>0.75</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9816466552315609</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>119.7100877761841</v>
+        <v>66.26886129379272</v>
       </c>
       <c r="G27" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9639550264550265</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="28">
@@ -1095,19 +1178,22 @@
         <v>0.95</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9875761837787154</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4286098480225</v>
+        <v>67.11769104003906</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9754573170731707</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="29">
@@ -1117,19 +1203,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>371.3607788085938</v>
+        <v>68.40872764587402</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="30">
@@ -1147,19 +1236,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3716814159292036</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.825736999511719</v>
+        <v>2.421855926513672</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8454545454545455</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2282608695652174</v>
+        <v>0.2717391304347826</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="31">
@@ -1169,19 +1261,22 @@
         <v>0.05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.453781512605042</v>
+        <v>0.4880047980807677</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.021427154541016</v>
+        <v>2.445113658905029</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2934782608695652</v>
+        <v>0.3227559607293127</v>
+      </c>
+      <c r="I31" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="32">
@@ -1191,19 +1286,22 @@
         <v>0.25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5256740279094974</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8.50754976272583</v>
+        <v>2.500414848327637</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3483146067415731</v>
+        <v>0.3565543071161049</v>
+      </c>
+      <c r="I32" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="33">
@@ -1213,19 +1311,22 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.5498602642276422</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>10.27882099151611</v>
+        <v>2.535462379455566</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3791832789658088</v>
+      </c>
+      <c r="I33" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="34">
@@ -1235,19 +1336,22 @@
         <v>0.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6165413533834586</v>
+        <v>0.5886858619416759</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.98024368286133</v>
+        <v>2.565681934356689</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4465194264569843</v>
+        <v>0.4201976445106268</v>
+      </c>
+      <c r="I34" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="35">
@@ -1257,19 +1361,22 @@
         <v>0.95</v>
       </c>
       <c r="D35" t="n">
-        <v>0.70356483729966</v>
+        <v>0.661634121274409</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49.98178482055666</v>
+        <v>2.631247043609619</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5426919518963923</v>
+        <v>0.4943605582246626</v>
+      </c>
+      <c r="I35" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="36">
@@ -1279,19 +1386,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9489795918367347</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>115.553617477417</v>
+        <v>2.882957458496094</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="I36" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="37">
@@ -1305,19 +1415,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>5.765676498413086</v>
+        <v>2.384662628173828</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9454545454545454</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="38">
@@ -1327,19 +1440,22 @@
         <v>0.05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4620752648885641</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.165837287902832</v>
+        <v>2.414047718048096</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3005684657671165</v>
+      </c>
+      <c r="I38" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="39">
@@ -1349,19 +1465,22 @@
         <v>0.25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5846153846153846</v>
+        <v>0.5836538461538462</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>8.774936199188232</v>
+        <v>2.456247806549072</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4130434782608696</v>
+        <v>0.4120843989769821</v>
+      </c>
+      <c r="I39" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="40">
@@ -1371,19 +1490,22 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.6217035125126249</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>10.414719581604</v>
+        <v>2.524018287658691</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.4510869565217391</v>
+      </c>
+      <c r="I40" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="41">
@@ -1393,19 +1515,22 @@
         <v>0.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6776859504132231</v>
+        <v>0.6693197838345865</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>15.12634754180908</v>
+        <v>2.561569213867188</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.5030072703238598</v>
+      </c>
+      <c r="I41" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="42">
@@ -1415,19 +1540,22 @@
         <v>0.95</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7573227638162703</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>46.8881368637085</v>
+        <v>2.604961395263672</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.625</v>
+        <v>0.6117852888624181</v>
+      </c>
+      <c r="I42" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="43">
@@ -1437,19 +1565,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.8196907043457</v>
+        <v>2.656936645507812</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="I43" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="44">
@@ -1467,19 +1598,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>102.715015411377</v>
+        <v>87.68510818481445</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.90625</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="I44" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="45">
@@ -1489,19 +1623,22 @@
         <v>0.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9543891402714932</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>110.7396721839905</v>
+        <v>87.70347833633423</v>
       </c>
       <c r="G45" t="n">
-        <v>0.852659574468085</v>
+        <v>0.9321022727272726</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="46">
@@ -1511,19 +1648,22 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.967210209145693</v>
+        <v>0.9771428571428571</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>131.6462159156799</v>
+        <v>88.22709321975708</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.9619675456389453</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="47">
@@ -1533,19 +1673,22 @@
         <v>0.5</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9852141769949989</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>144.4883346557617</v>
+        <v>88.6305570602417</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="48">
@@ -1561,13 +1704,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>161.0238552093506</v>
+        <v>89.57207202911377</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="49">
@@ -1583,13 +1729,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>213.3172392845154</v>
+        <v>90.02052545547485</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="50">
@@ -1605,13 +1754,16 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8048.917531967163</v>
+        <v>90.3470516204834</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="51">
@@ -1625,19 +1777,22 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.746268656716418</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>100.7542610168457</v>
+        <v>87.71705627441406</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8536585365853658</v>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="52">
@@ -1647,19 +1802,22 @@
         <v>0.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9375</v>
+        <v>0.9628767730496455</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>109.8988771438599</v>
+        <v>87.90981769561768</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8850252206809583</v>
+        <v>0.9351219512195122</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="53">
@@ -1669,19 +1827,22 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.9877286925479696</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>127.7173757553101</v>
+        <v>88.63401412963867</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9757549361207898</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="54">
@@ -1691,19 +1852,22 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9890056783858886</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>138.6754512786865</v>
+        <v>89.04838562011719</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9782505910165484</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="55">
@@ -1719,13 +1883,16 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>153.4032225608826</v>
+        <v>89.58381414413452</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="56">
@@ -1741,13 +1908,16 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>193.790066242218</v>
+        <v>91.06922149658203</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="57">
@@ -1763,13 +1933,16 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>370.7764148712158</v>
+        <v>92.98110008239746</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="58">
@@ -1787,19 +1960,22 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>10.96177101135254</v>
+        <v>10.27107238769531</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I58" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="59">
@@ -1809,19 +1985,22 @@
         <v>0.05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8221765601217655</v>
+        <v>0.9397926634768741</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>13.99621963500977</v>
+        <v>10.72807312011719</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9431501831501832</v>
       </c>
       <c r="H59" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.9038978494623656</v>
+      </c>
+      <c r="I59" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="60">
@@ -1831,19 +2010,22 @@
         <v>0.25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9433962264150944</v>
+        <v>0.9611638361638362</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>17.95107126235962</v>
+        <v>11.10833883285522</v>
       </c>
       <c r="G60" t="n">
-        <v>0.96875</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9375</v>
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="I60" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="61">
@@ -1853,19 +2035,22 @@
         <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9682459677419355</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>21.91388607025146</v>
+        <v>12.47000694274902</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9701426024955437</v>
+      </c>
+      <c r="I61" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="62">
@@ -1875,19 +2060,22 @@
         <v>0.75</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9866666666666667</v>
+        <v>0.9838579499596448</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>24.93280172348022</v>
+        <v>13.77809047698975</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.9735064011379801</v>
+      </c>
+      <c r="I62" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="63">
@@ -1897,19 +2085,22 @@
         <v>0.95</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9891000147297099</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>32.91983604431153</v>
+        <v>14.74204063415527</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.9989795918367347</v>
+      </c>
+      <c r="I63" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="64">
@@ -1919,19 +2110,22 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>81.91227912902832</v>
+        <v>14.90998268127441</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="65">
@@ -1945,19 +2139,22 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>5.188465118408203</v>
+        <v>8.72802734375</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.925</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="I65" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="66">
@@ -1967,19 +2164,22 @@
         <v>0.05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9486215538847117</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>12.93901205062866</v>
+        <v>9.362876415252686</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8850252206809583</v>
+        <v>0.938225338491296</v>
       </c>
       <c r="H66" t="n">
-        <v>0.896551724137931</v>
+        <v>0.961894586894587</v>
+      </c>
+      <c r="I66" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="67">
@@ -1989,19 +2189,22 @@
         <v>0.25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9733194733194733</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>15.95711708068848</v>
+        <v>10.37782430648804</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9773989898989899</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="I67" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="68">
@@ -2011,19 +2214,22 @@
         <v>0.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>17.96412467956543</v>
+        <v>11.55900955200195</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9767441860465116</v>
+      </c>
+      <c r="I68" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="69">
@@ -2033,19 +2239,22 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9902912621359223</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>20.94364166259766</v>
+        <v>12.3831033706665</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.9945652173913043</v>
+      </c>
+      <c r="I69" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="70">
@@ -2055,19 +2264,22 @@
         <v>0.95</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.9910692538767557</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>27.19570398330688</v>
+        <v>13.65000009536743</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="71">
@@ -2083,13 +2295,16 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>59.84759330749512</v>
+        <v>13.9620304107666</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="72">
@@ -2107,19 +2322,22 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2975206611570248</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>4.28462028503418</v>
+        <v>2.291000001132488</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1747572815533981</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="73">
@@ -2129,19 +2347,22 @@
         <v>0.05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6752307933030824</v>
+        <v>0.7933502906976744</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>13.79313468933105</v>
+        <v>2.315499997884035</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5096969696969696</v>
+        <v>0.659032634032634</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="74">
@@ -2151,19 +2372,22 @@
         <v>0.25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.9767045454545454</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>14.95742797851562</v>
+        <v>2.364749995991588</v>
       </c>
       <c r="G74" t="n">
-        <v>0.90625</v>
+        <v>0.9556650246305418</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="75">
@@ -2179,13 +2403,16 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>15.92087745666504</v>
+        <v>2.431499999016523</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="76">
@@ -2201,13 +2428,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>16.95531606674194</v>
+        <v>2.507500002160668</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="77">
@@ -2223,13 +2453,16 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>20.30879259109497</v>
+        <v>2.603300004079938</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="78">
@@ -2245,13 +2478,16 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1527.483940124512</v>
+        <v>2.684999994933605</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="79">
@@ -2265,19 +2501,22 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>6.054878234863281</v>
+        <v>2.30799999833107</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="80">
@@ -2287,19 +2526,22 @@
         <v>0.05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>13.60269784927368</v>
+        <v>2.323999997228384</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4196428571428572</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="81">
@@ -2309,19 +2551,22 @@
         <v>0.25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8533333333333334</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>14.90640640258789</v>
+        <v>2.365250000730157</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.8235632183908046</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="82">
@@ -2331,19 +2576,22 @@
         <v>0.5</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9676989676989677</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>15.76554775238037</v>
+        <v>2.417500000447035</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9451951951951951</v>
+        <v>0.9401162790697675</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="83">
@@ -2359,13 +2607,16 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>16.90322160720825</v>
+        <v>2.493750000372529</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="84">
@@ -2381,13 +2632,16 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>19.20638084411621</v>
+        <v>2.623749999329448</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="85">
@@ -2403,13 +2657,16 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>4190.004587173462</v>
+        <v>2.641999997198582</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="86">
@@ -2427,19 +2684,22 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1.958131790161133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2621359223300971</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="87">
@@ -2449,19 +2709,22 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.9543891402714932</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2.110624313354492</v>
+        <v>1.970791816711426</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7457164869029276</v>
+        <v>0.9349184782608696</v>
       </c>
       <c r="H87" t="n">
-        <v>0.925787037037037</v>
+        <v>0.9680034873583261</v>
+      </c>
+      <c r="I87" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="88">
@@ -2471,19 +2734,22 @@
         <v>0.25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2.992153167724609</v>
+        <v>2.03096866607666</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9575757575757576</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="89">
@@ -2493,19 +2759,22 @@
         <v>0.5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9833287024173382</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>3.020048141479492</v>
+        <v>2.111911773681641</v>
       </c>
       <c r="G89" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="90">
@@ -2515,19 +2784,22 @@
         <v>0.75</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.9858134313125128</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3.990411758422852</v>
+        <v>2.14838981628418</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="91">
@@ -2537,19 +2809,22 @@
         <v>0.95</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.9994845360824742</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>5.009078979492188</v>
+        <v>2.18052864074707</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="92">
@@ -2565,13 +2840,16 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>17.95268058776855</v>
+        <v>2.207040786743164</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="93">
@@ -2585,19 +2863,22 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1.971244812011719</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8529411764705882</v>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="94">
@@ -2607,19 +2888,22 @@
         <v>0.05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9212448255470136</v>
+        <v>0.957158651188502</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.995325088500977</v>
+        <v>1.981139183044434</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9357057416267942</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9620101596516691</v>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="95">
@@ -2629,19 +2913,22 @@
         <v>0.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9804864253393665</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2.991676330566406</v>
+        <v>2.017855644226074</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="96">
@@ -2651,19 +2938,22 @@
         <v>0.5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.9864840182648402</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2.995014190673828</v>
+        <v>2.071976661682129</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.978219696969697</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="97">
@@ -2673,19 +2963,22 @@
         <v>0.75</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>3.989696502685547</v>
+        <v>2.109646797180176</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="98">
@@ -2695,19 +2988,22 @@
         <v>0.95</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0.997787610619469</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>4.988038539886475</v>
+        <v>2.155721187591553</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="99">
@@ -2723,13 +3019,16 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>15.52248001098633</v>
+        <v>2.177000045776367</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="100">
@@ -2753,13 +3052,16 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2.832174301147461</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="101">
@@ -2769,19 +3071,22 @@
         <v>0.05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.3711431742508324</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>3.988981246948242</v>
+        <v>2.970099449157715</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.2315126050420168</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7993181818181818</v>
+        <v>0.9577777777777778</v>
+      </c>
+      <c r="I101" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="102">
@@ -2791,19 +3096,22 @@
         <v>0.25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.9624458874458874</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4.987001419067383</v>
+        <v>3.218472003936768</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.9294642857142857</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="103">
@@ -2813,19 +3121,22 @@
         <v>0.5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9847610251673978</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>5.984067916870117</v>
+        <v>3.458023071289062</v>
       </c>
       <c r="G103" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9699820788530467</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="104">
@@ -2841,13 +3152,16 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>6.981611251831055</v>
+        <v>3.59952449798584</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="105">
@@ -2863,13 +3177,16 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>9.491932392120365</v>
+        <v>3.993690013885498</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="106">
@@ -2885,13 +3202,16 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>31.22425079345703</v>
+        <v>4.513978958129883</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="107">
@@ -2905,19 +3225,22 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2.741098403930664</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="108">
@@ -2927,19 +3250,22 @@
         <v>0.05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7364186327888687</v>
+        <v>0.8290398126463701</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>3.988981246948242</v>
+        <v>3.134071826934814</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5828030303030304</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="109">
@@ -2949,19 +3275,22 @@
         <v>0.25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9397590361445783</v>
+        <v>0.9625331564986738</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>4.98652458190918</v>
+        <v>3.269314765930176</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8868685331710287</v>
+        <v>0.9297619047619048</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="110">
@@ -2971,19 +3300,22 @@
         <v>0.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9862910798122067</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>5.983591079711914</v>
+        <v>3.386020660400391</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.972953216374269</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="111">
@@ -2999,13 +3331,16 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>6.981134414672852</v>
+        <v>3.58116626739502</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="112">
@@ -3021,13 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>8.976221084594727</v>
+        <v>4.540205001831055</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="113">
@@ -3043,13 +3381,16 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>24.93596076965332</v>
+        <v>4.910707473754883</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="114">
@@ -3067,19 +3408,22 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.253968253968254</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>21.90423011779785</v>
+        <v>17.92001724243164</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I114" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="115">
@@ -3089,19 +3433,22 @@
         <v>0.05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8768640350877193</v>
+        <v>0.9418099547511312</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>23.93531799316406</v>
+        <v>17.95235872268677</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8259239130434782</v>
+        <v>0.9173449612403101</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9743243243243244</v>
+      </c>
+      <c r="I115" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="116">
@@ -3111,19 +3458,22 @@
         <v>0.25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9609638554216867</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>28.91451120376587</v>
+        <v>18.02891492843628</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.94173140954495</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="117">
@@ -3133,19 +3483,22 @@
         <v>0.5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9814241486068112</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>30.91669082641602</v>
+        <v>18.47004890441895</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9660919540229885</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="118">
@@ -3155,19 +3508,22 @@
         <v>0.75</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9843631778058008</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>33.91075134277344</v>
+        <v>18.54336261749268</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9703654188948306</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="119">
@@ -3177,19 +3533,22 @@
         <v>0.95</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.9883762344180023</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>46.84468507766724</v>
+        <v>18.59742403030396</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.9770577395577396</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="120">
@@ -3199,19 +3558,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>101.4668941497803</v>
+        <v>18.61572265625</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="121">
@@ -3225,19 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.8764044943820225</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>13.37623596191406</v>
+        <v>17.92001724243164</v>
       </c>
       <c r="G121" t="n">
-        <v>0.358974358974359</v>
+        <v>0.78</v>
       </c>
       <c r="H121" t="n">
-        <v>0.813953488372093</v>
+        <v>0.95</v>
+      </c>
+      <c r="I121" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="122">
@@ -3247,19 +3612,22 @@
         <v>0.05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8903190319031903</v>
+        <v>0.9430076628352491</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>22.96484708786011</v>
+        <v>17.92222261428833</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8950109649122807</v>
       </c>
       <c r="H122" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="123">
@@ -3269,19 +3637,22 @@
         <v>0.25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.972027518172378</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>26.92919969558716</v>
+        <v>17.99792051315308</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9463015647226174</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="124">
@@ -3291,19 +3662,22 @@
         <v>0.5</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9795577805590321</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>29.91139888763428</v>
+        <v>18.34309101104736</v>
       </c>
       <c r="G124" t="n">
-        <v>0.96</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="125">
@@ -3313,19 +3687,22 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9879518072289156</v>
+        <v>0.9858134313125128</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>32.28062391281128</v>
+        <v>18.4822678565979</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9727852852852853</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="126">
@@ -3335,19 +3712,22 @@
         <v>0.95</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0.9878774356686003</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>41.89755916595459</v>
+        <v>18.54467391967773</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.9760452961672473</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="127">
@@ -3357,19 +3737,22 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>89.79606628417969</v>
+        <v>18.55993270874023</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="128">
@@ -3387,19 +3770,22 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>2.193212509155273</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.6136363636363636</v>
+      </c>
+      <c r="I128" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="129">
@@ -3409,19 +3795,22 @@
         <v>0.05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.807591093117409</v>
+        <v>0.8575738660008323</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2.991914749145508</v>
+        <v>2.328395843505859</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8595714285714285</v>
+        <v>0.9351863354037268</v>
       </c>
       <c r="H129" t="n">
-        <v>0.90625</v>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="130">
@@ -3431,19 +3820,22 @@
         <v>0.25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9810314685314685</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>3.989219665527344</v>
+        <v>2.402901649475098</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9656385281385281</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="131">
@@ -3453,19 +3845,22 @@
         <v>0.5</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9856879983643426</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>4.979252815246582</v>
+        <v>2.463817596435547</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="132">
@@ -3481,13 +3876,16 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>5.024850368499756</v>
+        <v>2.555191516876221</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="133">
@@ -3503,13 +3901,16 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>7.012879848480225</v>
+        <v>2.749192714691162</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="134">
@@ -3525,13 +3926,16 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>28.89132499694824</v>
+        <v>2.843856811523438</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="135">
@@ -3545,19 +3949,22 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>2.248048782348633</v>
       </c>
       <c r="G135" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="I135" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="136">
@@ -3567,19 +3974,22 @@
         <v>0.05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9261793372319688</v>
+        <v>0.9560283687943263</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2.992069721221924</v>
+        <v>2.318978309631348</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9157620495006513</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="137">
@@ -3589,19 +3999,22 @@
         <v>0.25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9861032863849766</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>3.988981246948242</v>
+        <v>2.442479133605957</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9740131578947369</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="138">
@@ -3611,19 +4024,22 @@
         <v>0.5</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9883705206220419</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>4.957437515258789</v>
+        <v>2.526998519897461</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9779980657640233</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="139">
@@ -3633,19 +4049,22 @@
         <v>0.75</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0.9977477477477478</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>4.998207092285156</v>
+        <v>2.631485462188721</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="140">
@@ -3661,13 +4080,16 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>6.981134414672852</v>
+        <v>2.758145332336426</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="141">
@@ -3683,13 +4105,16 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>21.29220962524414</v>
+        <v>2.832889556884766</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="142">
@@ -3707,19 +4132,22 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4511278195488722</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1.522302627563477</v>
       </c>
       <c r="G142" t="n">
-        <v>0.2912621359223301</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
+      </c>
+      <c r="I142" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="143">
@@ -3729,19 +4157,22 @@
         <v>0.05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8952365830422356</v>
+        <v>0.96253804017042</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.995563507080078</v>
+        <v>1.533401012420654</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9413398692810457</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9617948717948718</v>
+      </c>
+      <c r="I143" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="144">
@@ -3751,19 +4182,22 @@
         <v>0.25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9772408963585434</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>2.991914749145508</v>
+        <v>1.724302768707275</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="H144" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9694196428571429</v>
+      </c>
+      <c r="I144" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="145">
@@ -3773,19 +4207,22 @@
         <v>0.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9827534939042522</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>3.012657165527344</v>
+        <v>1.835107803344727</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="146">
@@ -3795,19 +4232,22 @@
         <v>0.75</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0.9857052764347278</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>3.99017333984375</v>
+        <v>1.980185508728027</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="147">
@@ -3817,19 +4257,22 @@
         <v>0.95</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0.9993150684931507</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>5.017590522766113</v>
+        <v>2.12864875793457</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="148">
@@ -3845,13 +4288,16 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>37.90163993835449</v>
+        <v>2.155065536499023</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="149">
@@ -3865,19 +4311,22 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1.402139663696289</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H149" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="I149" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="150">
@@ -3887,19 +4336,22 @@
         <v>0.05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9349661208356861</v>
+        <v>0.9577759197324415</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1.994609832763672</v>
+        <v>1.424729824066162</v>
       </c>
       <c r="G150" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9377525252525252</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9741379310344828</v>
+      </c>
+      <c r="I150" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="151">
@@ -3909,19 +4361,22 @@
         <v>0.25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.982842509603073</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>2.989292144775391</v>
+        <v>1.582205295562744</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9758933635847986</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="152">
@@ -3931,19 +4386,22 @@
         <v>0.5</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9870042194092827</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2.992630004882812</v>
+        <v>1.749873161315918</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.9822994987468672</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="153">
@@ -3953,19 +4411,22 @@
         <v>0.75</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0.9886994704894744</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>3.965437412261963</v>
+        <v>1.815199851989746</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="154">
@@ -3975,19 +4436,22 @@
         <v>0.95</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0.9910692538767557</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>4.438912868499756</v>
+        <v>1.926898956298828</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="155">
@@ -4003,13 +4467,16 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>14.17803764343262</v>
+        <v>1.961946487426758</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="156">
@@ -4027,19 +4494,22 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2945736434108527</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>4.274129867553711</v>
+        <v>1.982999995350838</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1727272727272727</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H156" t="n">
-        <v>0.8529411764705882</v>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="157">
@@ -4049,19 +4519,22 @@
         <v>0.05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9708683473389356</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>14.94832038879395</v>
+        <v>2.043750004842877</v>
       </c>
       <c r="G157" t="n">
-        <v>0.8328014184397163</v>
+        <v>0.9448966408268734</v>
       </c>
       <c r="H157" t="n">
-        <v>0.96875</v>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="158">
@@ -4071,19 +4544,22 @@
         <v>0.25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9778985507246376</v>
+        <v>0.9831897749374827</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>16.71552658081055</v>
+        <v>2.116499997675419</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9622641509433962</v>
+        <v>0.96875</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="159">
@@ -4093,19 +4569,22 @@
         <v>0.5</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0.9931506849315068</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>17.95244216918945</v>
+        <v>2.23200000077486</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="160">
@@ -4121,13 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>19.94657516479492</v>
+        <v>2.403500001877546</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="161">
@@ -4143,13 +4625,16 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>25.77027082443238</v>
+        <v>2.680900002643466</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="162">
@@ -4165,13 +4650,16 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2844.262361526489</v>
+        <v>2.722000002861023</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="163">
@@ -4185,19 +4673,22 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>9.375810623168945</v>
+        <v>1.947999998927116</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.88</v>
       </c>
       <c r="H163" t="n">
-        <v>0.9534883720930233</v>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="164">
@@ -4207,19 +4698,22 @@
         <v>0.05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9578111337802391</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>13.97532224655151</v>
+        <v>1.961250003427267</v>
       </c>
       <c r="G164" t="n">
-        <v>0.864406779661017</v>
+        <v>0.9229323308270676</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="165">
@@ -4229,19 +4723,22 @@
         <v>0.25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.9874507514956953</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>15.95687866210938</v>
+        <v>2.086249999701977</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9622641509433962</v>
+        <v>0.9753344481605351</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="166">
@@ -4257,13 +4754,16 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>16.95704460144043</v>
+        <v>2.230500001460314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="167">
@@ -4279,13 +4779,16 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>18.94855499267578</v>
+        <v>2.373749999329448</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="168">
@@ -4301,13 +4804,16 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>22.96227216720581</v>
+        <v>2.810250002890825</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="169">
@@ -4323,13 +4829,16 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>3513.384819030762</v>
+        <v>3.071000002324581</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="170">
@@ -4347,19 +4856,22 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>11.04855537414551</v>
+        <v>0.7650000005960464</v>
       </c>
       <c r="G170" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="H170" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="I170" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="171">
@@ -4369,19 +4881,22 @@
         <v>0.05</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6746567666012888</v>
+        <v>0.8893162393162393</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>18.81953477859497</v>
+        <v>0.7773499950766564</v>
       </c>
       <c r="G171" t="n">
-        <v>0.6872321428571428</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6107487922705315</v>
+        <v>0.837962962962963</v>
+      </c>
+      <c r="I171" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="172">
@@ -4391,19 +4906,22 @@
         <v>0.25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>20.43664455413818</v>
+        <v>0.8257499989122152</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9696180555555556</v>
       </c>
       <c r="H172" t="n">
-        <v>0.9777777777777777</v>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="173">
@@ -4419,13 +4937,16 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>21.70944213867188</v>
+        <v>0.8689999990165234</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="174">
@@ -4441,13 +4962,16 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>22.94951677322388</v>
+        <v>0.9122500028461218</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="175">
@@ -4463,13 +4987,16 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>26.92853212356567</v>
+        <v>0.9270000010728836</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="176">
@@ -4485,13 +5012,16 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>3660.341501235962</v>
+        <v>0.9490000009536743</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="177">
@@ -4505,19 +5035,22 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.8125</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>9.785890579223633</v>
+        <v>0.7780000045895576</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="H177" t="n">
-        <v>0.4337349397590362</v>
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="I177" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="178">
@@ -4527,19 +5060,22 @@
         <v>0.05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8197674418604651</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>18.46160888671875</v>
+        <v>0.7837499994784594</v>
       </c>
       <c r="G178" t="n">
-        <v>0.8203333333333332</v>
+        <v>0.9254573170731708</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7043459174714662</v>
+        <v>0.7542857142857142</v>
+      </c>
+      <c r="I178" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="179">
@@ -4549,19 +5085,22 @@
         <v>0.25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9532710280373832</v>
+        <v>0.9672619047619048</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>20.20794153213501</v>
+        <v>0.8122499994933605</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.985576923076923</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="180">
@@ -4577,13 +5116,16 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>21.50511741638184</v>
+        <v>0.8605000004172325</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="181">
@@ -4599,13 +5141,16 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>22.93938398361206</v>
+        <v>0.9064999967813492</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="182">
@@ -4621,13 +5166,16 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>25.934898853302</v>
+        <v>0.9212500005960464</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="183">
@@ -4643,13 +5191,16 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>14477.02026367188</v>
+        <v>0.9230000004172325</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="184">
@@ -4667,19 +5218,22 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6266666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>7.120847702026367</v>
       </c>
       <c r="G184" t="n">
-        <v>0.4563106796116505</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H184" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="I184" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="185">
@@ -4689,19 +5243,22 @@
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.898876404494382</v>
+        <v>0.9632019115890084</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>6.980419158935547</v>
+        <v>7.145881652832031</v>
       </c>
       <c r="G185" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.9389795918367347</v>
       </c>
       <c r="H185" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.9728571428571429</v>
+      </c>
+      <c r="I185" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="186">
@@ -4711,19 +5268,22 @@
         <v>0.25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9692283661355826</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>8.948564529418945</v>
+        <v>7.183432579040527</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9701298701298702</v>
       </c>
       <c r="H186" t="n">
         <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="187">
@@ -4733,19 +5293,22 @@
         <v>0.5</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9882433356117566</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>9.059667587280273</v>
+        <v>7.308006286621094</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="188">
@@ -4761,13 +5324,16 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>10.4634165763855</v>
+        <v>7.33029842376709</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="189">
@@ -4783,13 +5349,16 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>14.96211290359497</v>
+        <v>7.346618175506592</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="190">
@@ -4805,13 +5374,16 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>34.90567207336426</v>
+        <v>7.349967956542969</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="191">
@@ -4825,19 +5397,22 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>7.126808166503906</v>
       </c>
       <c r="G191" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="192">
@@ -4847,19 +5422,22 @@
         <v>0.05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9594965675057209</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>6.978988647460938</v>
+        <v>7.146656513214111</v>
       </c>
       <c r="G192" t="n">
-        <v>0.8868401759530792</v>
+        <v>0.9332513416815742</v>
       </c>
       <c r="H192" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="193">
@@ -4869,19 +5447,22 @@
         <v>0.25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.978834219858156</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>7.978677749633789</v>
+        <v>7.16477632522583</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="194">
@@ -4891,19 +5472,22 @@
         <v>0.5</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9897863470557582</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>8.975744247436523</v>
+        <v>7.289290428161621</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9821371610845295</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="195">
@@ -4919,13 +5503,16 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>9.973287582397461</v>
+        <v>7.320821285247803</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="196">
@@ -4941,13 +5528,16 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>13.47850561141967</v>
+        <v>7.34245777130127</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="197">
@@ -4963,13 +5553,16 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>42.91367530822754</v>
+        <v>7.345914840698242</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="198">
@@ -4987,19 +5580,22 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5241379310344828</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>28.53941917419434</v>
+        <v>14.43400000035763</v>
       </c>
       <c r="G198" t="n">
-        <v>0.3551401869158878</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H198" t="n">
-        <v>0.5079365079365079</v>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="199">
@@ -5009,19 +5605,22 @@
         <v>0.05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9295347844643619</v>
+        <v>0.9708960328317373</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>32.25845098495483</v>
+        <v>14.77689999453724</v>
       </c>
       <c r="G199" t="n">
-        <v>0.875</v>
+        <v>0.9434920634920635</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="200">
@@ -5031,19 +5630,22 @@
         <v>0.25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9851827817434566</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>35.78007221221924</v>
+        <v>15.04124999977648</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9707983193277311</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="201">
@@ -5059,13 +5661,16 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>38.89501094818115</v>
+        <v>15.55900000035763</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="202">
@@ -5081,13 +5686,16 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>43.94721984863281</v>
+        <v>16.03074999712408</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="203">
@@ -5103,13 +5711,16 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>54.86438274383545</v>
+        <v>17.54104999937117</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="204">
@@ -5125,13 +5736,16 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>3188.439846038818</v>
+        <v>17.59800000488758</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="205">
@@ -5145,19 +5759,22 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>27.98604965209961</v>
+        <v>14.87200000137091</v>
       </c>
       <c r="G205" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H205" t="n">
-        <v>0.9615384615384616</v>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="206">
@@ -5167,19 +5784,22 @@
         <v>0.05</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9399156626506023</v>
+        <v>0.9662478583666476</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>32.19597339630127</v>
+        <v>14.88475000299513</v>
       </c>
       <c r="G206" t="n">
-        <v>0.8869902617163725</v>
+        <v>0.9347126929674099</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="207">
@@ -5189,19 +5809,22 @@
         <v>0.25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9904248686202903</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>34.89017486572266</v>
+        <v>15.20875000022352</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9810314685314685</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="208">
@@ -5217,13 +5840,16 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>37.47761249542236</v>
+        <v>15.44700000062585</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="209">
@@ -5239,13 +5865,16 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>41.88966751098633</v>
+        <v>15.85275000147521</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="210">
@@ -5261,13 +5890,16 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>51.23149156570432</v>
+        <v>16.2430000025779</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="211">
@@ -5283,13 +5915,16 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1493.103504180908</v>
+        <v>17.95199999958277</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
     <row r="212">
@@ -5307,19 +5942,22 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>212.7187252044678</v>
+        <v>183.9888095855713</v>
       </c>
       <c r="G212" t="n">
-        <v>0.509090909090909</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="H212" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="I212" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="213">
@@ -5329,19 +5967,22 @@
         <v>0.05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.686984126984127</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>228.4350514411926</v>
+        <v>184.1085195541382</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9152001442481067</v>
+        <v>0.9690929878048781</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5</v>
+        <v>0.5233307453416149</v>
+      </c>
+      <c r="I213" t="n">
+        <v>60.00555607000648</v>
       </c>
     </row>
     <row r="214">
@@ -5351,19 +5992,22 @@
         <v>0.25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9022727272727273</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>275.9678959846497</v>
+        <v>184.447705745697</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9868421052631579</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7880244755244755</v>
+        <v>0.8237179487179487</v>
+      </c>
+      <c r="I214" t="n">
+        <v>62.50578757292342</v>
       </c>
     </row>
     <row r="215">
@@ -5373,19 +6017,22 @@
         <v>0.5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9713349713349714</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>300.926685333252</v>
+        <v>186.2584352493286</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0.9632996632996633</v>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="I215" t="n">
+        <v>68.00629687934068</v>
       </c>
     </row>
     <row r="216">
@@ -5395,19 +6042,22 @@
         <v>0.75</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9839968774395004</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>329.5580744743347</v>
+        <v>186.9102120399475</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9727852852852853</v>
+      </c>
+      <c r="I216" t="n">
+        <v>73.50680618575794</v>
       </c>
     </row>
     <row r="217">
@@ -5417,19 +6067,22 @@
         <v>0.95</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0.9891182795698925</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>407.2071194648743</v>
+        <v>187.6991271972656</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0.9791445035460993</v>
+      </c>
+      <c r="I217" t="n">
+        <v>92.00851930734326</v>
       </c>
     </row>
     <row r="218">
@@ -5439,19 +6092,22 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>1114.78853225708</v>
+        <v>187.8342628479004</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0.9803921568627451</v>
+      </c>
+      <c r="I218" t="n">
+        <v>100.0092601166775</v>
       </c>
     </row>
     <row r="219">
@@ -5465,19 +6121,22 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>210.47043800354</v>
+        <v>183.9067935943604</v>
       </c>
       <c r="G219" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="H219" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.5</v>
+      </c>
+      <c r="I219" t="n">
+        <v>50.00463005833873</v>
       </c>
     </row>
     <row r="220">
@@ -5487,19 +6146,22 @@
         <v>0.05</v>
       </c>
       <c r="D220" t="n">
-        <v>0.688856400259909</v>
+        <v>0.8010752688172043</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>225.4095435142517</v>
+        <v>184.017539024353</v>
       </c>
       <c r="G220" t="n">
-        <v>0.9187258687258688</v>
+        <v>0.9614583333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>0.5253962264150944</v>
+        <v>0.6729249011857708</v>
+      </c>
+      <c r="I220" t="n">
+        <v>55.00509306417261</v>
       </c>
     </row>
     <row r="221">
@@ -5509,19 +6171,22 @@
         <v>0.25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9475546975546976</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>263.2955312728882</v>
+        <v>184.2423677444458</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9814814814814815</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9298158287705327</v>
+      </c>
+      <c r="I221" t="n">
+        <v>74.00685248634132</v>
       </c>
     </row>
     <row r="222">
@@ -5531,19 +6196,22 @@
         <v>0.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9864840182648402</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>284.5783233642578</v>
+        <v>185.3859424591064</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9749843652282677</v>
+      </c>
+      <c r="I222" t="n">
+        <v>82.00759329567552</v>
       </c>
     </row>
     <row r="223">
@@ -5553,19 +6221,22 @@
         <v>0.75</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9896907216494846</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>312.0248913764954</v>
+        <v>186.3875985145569</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="I223" t="n">
+        <v>89.50828780442633</v>
       </c>
     </row>
     <row r="224">
@@ -5575,19 +6246,22 @@
         <v>0.95</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0.9906440185302934</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>374.5586156845093</v>
+        <v>187.4592900276184</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0.9820616883116883</v>
+      </c>
+      <c r="I224" t="n">
+        <v>107.0099083248449</v>
       </c>
     </row>
     <row r="225">
@@ -5597,19 +6271,22 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>941.7219161987305</v>
+        <v>187.5109672546387</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="I225" t="n">
+        <v>112.0103713306788</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithm_tester/data_autosave/real_sex_arr.xlsx
+++ b/Algorithm_tester/data_autosave/real_sex_arr.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>151.4708995819092</v>
+        <v>154.0107727050781</v>
       </c>
       <c r="G2" t="n">
         <v>0.9411764705882353</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>151.8949627876282</v>
+        <v>155.1167488098145</v>
       </c>
       <c r="G3" t="n">
         <v>0.9465653153153153</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>158.5153341293335</v>
+        <v>157.5561165809631</v>
       </c>
       <c r="G4" t="n">
         <v>0.96875</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>161.0523462295532</v>
+        <v>161.9099378585815</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>163.2494926452637</v>
+        <v>163.1374955177307</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>164.8808598518372</v>
+        <v>163.9590740203857</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.7660007476807</v>
+        <v>164.0028953552246</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>149.6777534484863</v>
+        <v>152.8279781341553</v>
       </c>
       <c r="G9" t="n">
         <v>0.9069767441860465</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>152.1504521369934</v>
+        <v>155.3404331207275</v>
       </c>
       <c r="G10" t="n">
         <v>0.9327346041055717</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>155.3784012794495</v>
+        <v>159.3799591064453</v>
       </c>
       <c r="G11" t="n">
         <v>0.9745192307692307</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>159.7130298614502</v>
+        <v>161.7175340652466</v>
       </c>
       <c r="G12" t="n">
         <v>0.9821371610845295</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.4991297721863</v>
+        <v>162.6967191696167</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>164.766252040863</v>
+        <v>164.1083359718323</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>165.4198169708252</v>
+        <v>164.823055267334</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>63.05408477783203</v>
+        <v>64.49103355407715</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>64.12794589996338</v>
+        <v>64.53365087509155</v>
       </c>
       <c r="G17" t="n">
         <v>0.2177222222222223</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>65.79685211181641</v>
+        <v>66.15144014358521</v>
       </c>
       <c r="G18" t="n">
         <v>0.8490287162162162</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>66.680908203125</v>
+        <v>66.58899784088135</v>
       </c>
       <c r="G19" t="n">
         <v>0.9041053921568627</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>67.19255447387695</v>
+        <v>67.22843647003174</v>
       </c>
       <c r="G20" t="n">
         <v>0.9652093596059114</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>67.86923408508301</v>
+        <v>67.58427619934082</v>
       </c>
       <c r="G21" t="n">
         <v>0.9773737373737373</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>67.96002388000488</v>
+        <v>68.12429428100586</v>
       </c>
       <c r="G22" t="n">
         <v>0.9777777777777777</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>61.35201454162598</v>
+        <v>62.957763671875</v>
       </c>
       <c r="G23" t="n">
         <v>0.2222222222222222</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>63.29864263534546</v>
+        <v>63.24237585067749</v>
       </c>
       <c r="G24" t="n">
         <v>0.3729166666666667</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>64.23676013946533</v>
+        <v>65.05358219146729</v>
       </c>
       <c r="G25" t="n">
         <v>0.8696013289036544</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>65.22214412689209</v>
+        <v>66.01154804229736</v>
       </c>
       <c r="G26" t="n">
         <v>0.949874686716792</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>66.26886129379272</v>
+        <v>66.39152765274048</v>
       </c>
       <c r="G27" t="n">
         <v>0.9639550264550265</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>67.11769104003906</v>
+        <v>68.07518005371094</v>
       </c>
       <c r="G28" t="n">
         <v>0.9754573170731707</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>68.40872764587402</v>
+        <v>68.15505027770996</v>
       </c>
       <c r="G29" t="n">
         <v>0.975609756097561</v>
@@ -1224,7 +1224,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>gamb</t>
+          <t>fnvg</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4273504273504273</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.421855926513672</v>
+        <v>19.03915405273438</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="I30" t="n">
         <v>50.00463005833873</v>
@@ -1261,19 +1261,19 @@
         <v>0.05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4880047980807677</v>
+        <v>0.9697415329768271</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.445113658905029</v>
+        <v>19.09270286560059</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.9413398692810457</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3227559607293127</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>60.00555607000648</v>
@@ -1286,19 +1286,19 @@
         <v>0.25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5256740279094974</v>
+        <v>0.9837366640645329</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.500414848327637</v>
+        <v>19.32239532470703</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3565543071161049</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>62.50578757292342</v>
@@ -1311,19 +1311,19 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5498602642276422</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.535462379455566</v>
+        <v>19.54007148742676</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3791832789658088</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>68.00629687934068</v>
@@ -1336,19 +1336,19 @@
         <v>0.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5886858619416759</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.565681934356689</v>
+        <v>19.8591947555542</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4201976445106268</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>73.50680618575794</v>
@@ -1361,19 +1361,19 @@
         <v>0.95</v>
       </c>
       <c r="D35" t="n">
-        <v>0.661634121274409</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.631247043609619</v>
+        <v>20.46982049942017</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4943605582246626</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>92.00851930734326</v>
@@ -1386,19 +1386,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7123287671232876</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.882957458496094</v>
+        <v>21.09384536743164</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5531914893617021</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>100.0092601166775</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4310344827586207</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.384662628173828</v>
+        <v>17.81487464904785</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="I37" t="n">
         <v>50.00463005833873</v>
@@ -1440,19 +1440,19 @@
         <v>0.05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4620752648885641</v>
+        <v>0.9578111337802391</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.414047718048096</v>
+        <v>18.04429292678833</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.9233476132190942</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3005684657671165</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>55.00509306417261</v>
@@ -1465,19 +1465,19 @@
         <v>0.25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5836538461538462</v>
+        <v>0.9880902922032959</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.456247806549072</v>
+        <v>18.90629529953003</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.9773989898989899</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4120843989769821</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>74.00685248634132</v>
@@ -1490,19 +1490,19 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6217035125126249</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.524018287658691</v>
+        <v>19.30785179138184</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4510869565217391</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>82.00759329567552</v>
@@ -1515,19 +1515,19 @@
         <v>0.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6693197838345865</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.561569213867188</v>
+        <v>19.60122585296631</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5030072703238598</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>89.50828780442633</v>
@@ -1540,19 +1540,19 @@
         <v>0.95</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7573227638162703</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.604961395263672</v>
+        <v>20.04289627075195</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6117852888624181</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>107.0099083248449</v>
@@ -1565,19 +1565,19 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7671232876712328</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.656936645507812</v>
+        <v>20.23911476135254</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6222222222222222</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>112.0103713306788</v>
@@ -1586,7 +1586,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>gqrs</t>
+          <t>fwhvg</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1598,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9508196721311475</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>87.68510818481445</v>
+        <v>18.8300609588623</v>
       </c>
       <c r="G44" t="n">
-        <v>0.90625</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="I44" t="n">
         <v>50.00463005833873</v>
@@ -1623,16 +1623,16 @@
         <v>0.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9543891402714932</v>
+        <v>0.9697415329768271</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>87.70347833633423</v>
+        <v>18.84933710098267</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9321022727272726</v>
+        <v>0.9413398692810457</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1648,16 +1648,16 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9771428571428571</v>
+        <v>0.9837366640645329</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>88.22709321975708</v>
+        <v>19.08326148986816</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9619675456389453</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -1673,16 +1673,16 @@
         <v>0.5</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9852141769949989</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>88.6305570602417</v>
+        <v>19.27542686462402</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9864864864864865</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>89.57207202911377</v>
+        <v>19.59449052810669</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>90.02052545547485</v>
+        <v>20.21092176437378</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>90.3470516204834</v>
+        <v>20.84779739379883</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>87.71705627441406</v>
+        <v>17.60411262512207</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="I51" t="n">
         <v>50.00463005833873</v>
@@ -1802,16 +1802,16 @@
         <v>0.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9628767730496455</v>
+        <v>0.9578111337802391</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>87.90981769561768</v>
+        <v>17.81994104385376</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9351219512195122</v>
+        <v>0.9233476132190942</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -1827,16 +1827,16 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9877286925479696</v>
+        <v>0.9880902922032959</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>88.63401412963867</v>
+        <v>18.65988969802856</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9757549361207898</v>
+        <v>0.9773989898989899</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -1852,16 +1852,16 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9890056783858886</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>89.04838562011719</v>
+        <v>19.08159255981445</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9782505910165484</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>89.58381414413452</v>
+        <v>19.36560869216919</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>91.06922149658203</v>
+        <v>19.8180079460144</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>92.98110008239746</v>
+        <v>19.95968818664551</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>hamilt</t>
+          <t>gamb</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1960,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8985507246376812</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>10.27107238769531</v>
+        <v>2.358913421630859</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9215686274509803</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="I58" t="n">
         <v>50.00463005833873</v>
@@ -1985,19 +1985,19 @@
         <v>0.05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9397926634768741</v>
+        <v>0.4880047980807677</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>10.72807312011719</v>
+        <v>2.415716648101807</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9431501831501832</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9038978494623656</v>
+        <v>0.3227559607293127</v>
       </c>
       <c r="I59" t="n">
         <v>60.00555607000648</v>
@@ -2010,19 +2010,19 @@
         <v>0.25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9611638361638362</v>
+        <v>0.5256740279094974</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11.10833883285522</v>
+        <v>2.439558506011963</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9725877192982456</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.3565543071161049</v>
       </c>
       <c r="I60" t="n">
         <v>62.50578757292342</v>
@@ -2035,19 +2035,19 @@
         <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9682459677419355</v>
+        <v>0.5498602642276422</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>12.47000694274902</v>
+        <v>2.457022666931152</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9701426024955437</v>
+        <v>0.3791832789658088</v>
       </c>
       <c r="I61" t="n">
         <v>68.00629687934068</v>
@@ -2060,19 +2060,19 @@
         <v>0.75</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9838579499596448</v>
+        <v>0.5886858619416759</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>13.77809047698975</v>
+        <v>2.488851547241211</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9735064011379801</v>
+        <v>0.4201976445106268</v>
       </c>
       <c r="I62" t="n">
         <v>73.50680618575794</v>
@@ -2085,19 +2085,19 @@
         <v>0.95</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9891000147297099</v>
+        <v>0.661634121274409</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>14.74204063415527</v>
+        <v>2.510929107666016</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9989795918367347</v>
+        <v>0.4943605582246626</v>
       </c>
       <c r="I63" t="n">
         <v>92.00851930734326</v>
@@ -2110,19 +2110,19 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.989247311827957</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>14.90998268127441</v>
+        <v>3.885746002197266</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="I64" t="n">
         <v>100.0092601166775</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>8.72802734375</v>
+        <v>2.3651123046875</v>
       </c>
       <c r="G65" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="I65" t="n">
         <v>50.00463005833873</v>
@@ -2164,19 +2164,19 @@
         <v>0.05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9486215538847117</v>
+        <v>0.4620752648885641</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>9.362876415252686</v>
+        <v>2.402603626251221</v>
       </c>
       <c r="G66" t="n">
-        <v>0.938225338491296</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.961894586894587</v>
+        <v>0.3005684657671165</v>
       </c>
       <c r="I66" t="n">
         <v>55.00509306417261</v>
@@ -2189,19 +2189,19 @@
         <v>0.25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9733194733194733</v>
+        <v>0.5836538461538462</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>10.37782430648804</v>
+        <v>2.428114414215088</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9773989898989899</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.4120843989769821</v>
       </c>
       <c r="I67" t="n">
         <v>74.00685248634132</v>
@@ -2214,19 +2214,19 @@
         <v>0.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.6217035125126249</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>11.55900955200195</v>
+        <v>2.463579177856445</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.4510869565217391</v>
       </c>
       <c r="I68" t="n">
         <v>82.00759329567552</v>
@@ -2239,19 +2239,19 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.6693197838345865</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>12.3831033706665</v>
+        <v>2.481698989868164</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.5030072703238598</v>
       </c>
       <c r="I69" t="n">
         <v>89.50828780442633</v>
@@ -2264,19 +2264,19 @@
         <v>0.95</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9910692538767557</v>
+        <v>0.7573227638162703</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>13.65000009536743</v>
+        <v>2.677500247955322</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0.6117852888624181</v>
       </c>
       <c r="I70" t="n">
         <v>107.0099083248449</v>
@@ -2289,19 +2289,19 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>13.9620304107666</v>
+        <v>5.832195281982422</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="I71" t="n">
         <v>112.0103713306788</v>
@@ -2310,7 +2310,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>jqrs</t>
+          <t>gqrs</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2322,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.684931506849315</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2.291000001132488</v>
+        <v>84.90800857543945</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.90625</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="I72" t="n">
         <v>50.00463005833873</v>
@@ -2347,16 +2347,16 @@
         <v>0.05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7933502906976744</v>
+        <v>0.9543891402714932</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>2.315499997884035</v>
+        <v>85.21748781204224</v>
       </c>
       <c r="G73" t="n">
-        <v>0.659032634032634</v>
+        <v>0.9321022727272726</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2372,16 +2372,16 @@
         <v>0.25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9767045454545454</v>
+        <v>0.9771428571428571</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>2.364749995991588</v>
+        <v>85.56473255157471</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9556650246305418</v>
+        <v>0.9619675456389453</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -2397,16 +2397,16 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.9852141769949989</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2.431499999016523</v>
+        <v>85.95156669616699</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>2.507500002160668</v>
+        <v>86.39538288116455</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.603300004079938</v>
+        <v>87.15928792953491</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.684999994933605</v>
+        <v>87.17989921569824</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2501,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2.30799999833107</v>
+        <v>85.36887168884277</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -2526,16 +2526,16 @@
         <v>0.05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.9628767730496455</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>2.323999997228384</v>
+        <v>85.4794979095459</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4196428571428572</v>
+        <v>0.9351219512195122</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -2551,16 +2551,16 @@
         <v>0.25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.9877286925479696</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>2.365250000730157</v>
+        <v>86.11446619033813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8235632183908046</v>
+        <v>0.9757549361207898</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -2576,16 +2576,16 @@
         <v>0.5</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9676989676989677</v>
+        <v>0.9890056783858886</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>2.417500000447035</v>
+        <v>86.49885654449463</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9401162790697675</v>
+        <v>0.9782505910165484</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>2.493750000372529</v>
+        <v>86.91239356994629</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>2.623749999329448</v>
+        <v>87.89920806884766</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2.641999997198582</v>
+        <v>90.12603759765625</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2672,7 +2672,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>kali</t>
+          <t>hamilt</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1.958131790161133</v>
+        <v>10.31589508056641</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="I86" t="n">
         <v>50.00463005833873</v>
@@ -2709,19 +2709,19 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9543891402714932</v>
+        <v>0.9397926634768741</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.970791816711426</v>
+        <v>10.36816835403442</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9349184782608696</v>
+        <v>0.9431501831501832</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9680034873583261</v>
+        <v>0.9038978494623656</v>
       </c>
       <c r="I87" t="n">
         <v>60.00555607000648</v>
@@ -2734,19 +2734,19 @@
         <v>0.25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9694196428571429</v>
+        <v>0.9611638361638362</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2.03096866607666</v>
+        <v>10.78271865844727</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9575757575757576</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="I88" t="n">
         <v>62.50578757292342</v>
@@ -2759,19 +2759,19 @@
         <v>0.5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9833287024173382</v>
+        <v>0.9682459677419355</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2.111911773681641</v>
+        <v>12.30835914611816</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9897959183673469</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0.9701426024955437</v>
       </c>
       <c r="I89" t="n">
         <v>68.00629687934068</v>
@@ -2784,19 +2784,19 @@
         <v>0.75</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9858134313125128</v>
+        <v>0.9838579499596448</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2.14838981628418</v>
+        <v>13.2947564125061</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0.9735064011379801</v>
       </c>
       <c r="I90" t="n">
         <v>73.50680618575794</v>
@@ -2809,19 +2809,19 @@
         <v>0.95</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9994845360824742</v>
+        <v>0.9891000147297099</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>2.18052864074707</v>
+        <v>14.41271305084229</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0.9989795918367347</v>
       </c>
       <c r="I91" t="n">
         <v>92.00851930734326</v>
@@ -2834,13 +2834,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2.207040786743164</v>
+        <v>14.44602012634277</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2863,19 +2863,19 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1.971244812011719</v>
+        <v>8.378028869628906</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I93" t="n">
         <v>50.00463005833873</v>
@@ -2888,19 +2888,19 @@
         <v>0.05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.957158651188502</v>
+        <v>0.9486215538847117</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.981139183044434</v>
+        <v>9.25600528717041</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9357057416267942</v>
+        <v>0.938225338491296</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0.961894586894587</v>
       </c>
       <c r="I94" t="n">
         <v>55.00509306417261</v>
@@ -2913,19 +2913,19 @@
         <v>0.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9804864253393665</v>
+        <v>0.9733194733194733</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2.017855644226074</v>
+        <v>10.28633117675781</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9773989898989899</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="I95" t="n">
         <v>74.00685248634132</v>
@@ -2938,19 +2938,19 @@
         <v>0.5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9864840182648402</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2.071976661682129</v>
+        <v>11.23309135437012</v>
       </c>
       <c r="G96" t="n">
-        <v>0.978219696969697</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I96" t="n">
         <v>82.00759329567552</v>
@@ -2963,19 +2963,19 @@
         <v>0.75</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2.109646797180176</v>
+        <v>12.08710670471191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="I97" t="n">
         <v>89.50828780442633</v>
@@ -2988,13 +2988,13 @@
         <v>0.95</v>
       </c>
       <c r="D98" t="n">
-        <v>0.997787610619469</v>
+        <v>0.9910692538767557</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>2.155721187591553</v>
+        <v>13.89175653457642</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2.177000045776367</v>
+        <v>14.18113708496094</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3034,7 +3034,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>mart</t>
+          <t>jqrs</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2.832174301147461</v>
+        <v>2.241999998688698</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>50.00463005833873</v>
@@ -3071,19 +3071,19 @@
         <v>0.05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3711431742508324</v>
+        <v>0.7933502906976744</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2.970099449157715</v>
+        <v>2.262849994748831</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2315126050420168</v>
+        <v>0.659032634032634</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9577777777777778</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>60.00555607000648</v>
@@ -3096,16 +3096,16 @@
         <v>0.25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9624458874458874</v>
+        <v>0.9767045454545454</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>3.218472003936768</v>
+        <v>2.302250001579523</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9294642857142857</v>
+        <v>0.9556650246305418</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3121,16 +3121,16 @@
         <v>0.5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9847610251673978</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>3.458023071289062</v>
+        <v>2.331499999854714</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9699820788530467</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3.59952449798584</v>
+        <v>2.387499997392297</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>3.993690013885498</v>
+        <v>2.462700001522899</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>4.513978958129883</v>
+        <v>2.521999999880791</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.741098403930664</v>
+        <v>2.256999999284744</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -3250,16 +3250,16 @@
         <v>0.05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8290398126463701</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>3.134071826934814</v>
+        <v>2.289249998750165</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.4196428571428572</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -3275,16 +3275,16 @@
         <v>0.25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9625331564986738</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>3.269314765930176</v>
+        <v>2.329499999061227</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9297619047619048</v>
+        <v>0.8235632183908046</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -3300,16 +3300,16 @@
         <v>0.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9862910798122067</v>
+        <v>0.9676989676989677</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>3.386020660400391</v>
+        <v>2.359499998390675</v>
       </c>
       <c r="G110" t="n">
-        <v>0.972953216374269</v>
+        <v>0.9401162790697675</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>3.58116626739502</v>
+        <v>2.445500001311302</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>4.540205001831055</v>
+        <v>2.496999997645617</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>4.910707473754883</v>
+        <v>2.501999996602535</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3396,7 +3396,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>nab</t>
+          <t>kali</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3408,19 +3408,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>17.92001724243164</v>
+        <v>1.91187858581543</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="I114" t="n">
         <v>50.00463005833873</v>
@@ -3433,19 +3433,19 @@
         <v>0.05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9418099547511312</v>
+        <v>0.9543891402714932</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>17.95235872268677</v>
+        <v>1.927328109741211</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9173449612403101</v>
+        <v>0.9349184782608696</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9743243243243244</v>
+        <v>0.9680034873583261</v>
       </c>
       <c r="I115" t="n">
         <v>60.00555607000648</v>
@@ -3458,16 +3458,16 @@
         <v>0.25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9609638554216867</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>18.02891492843628</v>
+        <v>1.958012580871582</v>
       </c>
       <c r="G116" t="n">
-        <v>0.94173140954495</v>
+        <v>0.9575757575757576</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -3483,16 +3483,16 @@
         <v>0.5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9814241486068112</v>
+        <v>0.9833287024173382</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>18.47004890441895</v>
+        <v>2.000927925109863</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9660919540229885</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -3508,16 +3508,16 @@
         <v>0.75</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9843631778058008</v>
+        <v>0.9858134313125128</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>18.54336261749268</v>
+        <v>2.019107341766357</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9703654188948306</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -3533,16 +3533,16 @@
         <v>0.95</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9883762344180023</v>
+        <v>0.9994845360824742</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>18.59742403030396</v>
+        <v>2.046489715576172</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9770577395577396</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -3558,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9887640449438202</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>18.61572265625</v>
+        <v>2.052068710327148</v>
       </c>
       <c r="G120" t="n">
-        <v>0.9777777777777777</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8764044943820225</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>17.92001724243164</v>
+        <v>1.902103424072266</v>
       </c>
       <c r="G121" t="n">
-        <v>0.78</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H121" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>50.00463005833873</v>
@@ -3612,16 +3612,16 @@
         <v>0.05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9430076628352491</v>
+        <v>0.957158651188502</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>17.92222261428833</v>
+        <v>1.946926116943359</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8950109649122807</v>
+        <v>0.9357057416267942</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -3637,16 +3637,16 @@
         <v>0.25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.972027518172378</v>
+        <v>0.9804864253393665</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>17.99792051315308</v>
+        <v>1.998960971832275</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9463015647226174</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -3662,16 +3662,16 @@
         <v>0.5</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9795577805590321</v>
+        <v>0.9864840182648402</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>18.34309101104736</v>
+        <v>2.01117992401123</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.978219696969697</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -3687,16 +3687,16 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9858134313125128</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>18.4822678565979</v>
+        <v>2.04700231552124</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9727852852852853</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -3712,16 +3712,16 @@
         <v>0.95</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9878774356686003</v>
+        <v>0.997787610619469</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>18.54467391967773</v>
+        <v>2.063393592834473</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9760452961672473</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -3737,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9879518072289156</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>18.55993270874023</v>
+        <v>2.138137817382812</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9761904761904762</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -3758,7 +3758,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>nk</t>
+          <t>mart</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759493670886076</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>2.193212509155273</v>
+        <v>2.846956253051758</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7419354838709677</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6136363636363636</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>50.00463005833873</v>
@@ -3795,19 +3795,19 @@
         <v>0.05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8575738660008323</v>
+        <v>0.3711431742508324</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2.328395843505859</v>
+        <v>2.864885330200195</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9351863354037268</v>
+        <v>0.2315126050420168</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0.9577777777777778</v>
       </c>
       <c r="I129" t="n">
         <v>60.00555607000648</v>
@@ -3820,16 +3820,16 @@
         <v>0.25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9810314685314685</v>
+        <v>0.9624458874458874</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>2.402901649475098</v>
+        <v>3.151476383209229</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9656385281385281</v>
+        <v>0.9294642857142857</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -3845,16 +3845,16 @@
         <v>0.5</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9856879983643426</v>
+        <v>0.9847610251673978</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>2.463817596435547</v>
+        <v>3.289937973022461</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9897959183673469</v>
+        <v>0.9699820788530467</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>2.555191516876221</v>
+        <v>3.482639789581299</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>2.749192714691162</v>
+        <v>3.977799415588379</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>2.843856811523438</v>
+        <v>4.431247711181641</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.945054945054945</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>2.248048782348633</v>
+        <v>2.768993377685547</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>50.00463005833873</v>
@@ -3974,16 +3974,16 @@
         <v>0.05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9560283687943263</v>
+        <v>0.8290398126463701</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2.318978309631348</v>
+        <v>3.148198127746582</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9157620495006513</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -3999,16 +3999,16 @@
         <v>0.25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9861032863849766</v>
+        <v>0.9625331564986738</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>2.442479133605957</v>
+        <v>3.21584939956665</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9740131578947369</v>
+        <v>0.9297619047619048</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
@@ -4024,16 +4024,16 @@
         <v>0.5</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9883705206220419</v>
+        <v>0.9862910798122067</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2.526998519897461</v>
+        <v>3.352880477905273</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9779980657640233</v>
+        <v>0.972953216374269</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
@@ -4049,13 +4049,13 @@
         <v>0.75</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9977477477477478</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2.631485462188721</v>
+        <v>3.598630428314209</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2.758145332336426</v>
+        <v>4.552900791168213</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>2.832889556884766</v>
+        <v>5.050897598266602</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>pan-tomp</t>
+          <t>nab</t>
         </is>
       </c>
       <c r="B142" s="1" t="inlineStr">
@@ -4132,19 +4132,19 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1.522302627563477</v>
+        <v>18.65220069885254</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I142" t="n">
         <v>50.00463005833873</v>
@@ -4157,19 +4157,19 @@
         <v>0.05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.96253804017042</v>
+        <v>0.9418099547511312</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.533401012420654</v>
+        <v>18.67023706436157</v>
       </c>
       <c r="G143" t="n">
-        <v>0.9413398692810457</v>
+        <v>0.9173449612403101</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9617948717948718</v>
+        <v>0.9743243243243244</v>
       </c>
       <c r="I143" t="n">
         <v>60.00555607000648</v>
@@ -4182,19 +4182,19 @@
         <v>0.25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9772408963585434</v>
+        <v>0.9609638554216867</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.724302768707275</v>
+        <v>18.68468523025513</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.94173140954495</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9694196428571429</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>62.50578757292342</v>
@@ -4207,16 +4207,16 @@
         <v>0.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9827534939042522</v>
+        <v>0.9814241486068112</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1.835107803344727</v>
+        <v>18.70012283325195</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.9660919540229885</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -4232,16 +4232,16 @@
         <v>0.75</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9857052764347278</v>
+        <v>0.9843631778058008</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1.980185508728027</v>
+        <v>18.72020959854126</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.9703654188948306</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -4257,16 +4257,16 @@
         <v>0.95</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9993150684931507</v>
+        <v>0.9883762344180023</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>2.12864875793457</v>
+        <v>18.74079704284668</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.9770577395577396</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -4282,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>2.155065536499023</v>
+        <v>18.75615119934082</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -4311,19 +4311,19 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.8764044943820225</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1.402139663696289</v>
+        <v>18.62502098083496</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.78</v>
       </c>
       <c r="H149" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.95</v>
       </c>
       <c r="I149" t="n">
         <v>50.00463005833873</v>
@@ -4336,19 +4336,19 @@
         <v>0.05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9577759197324415</v>
+        <v>0.9430076628352491</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1.424729824066162</v>
+        <v>18.64218711853027</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9377525252525252</v>
+        <v>0.8950109649122807</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9741379310344828</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>55.00509306417261</v>
@@ -4361,16 +4361,16 @@
         <v>0.25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.982842509603073</v>
+        <v>0.972027518172378</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1.582205295562744</v>
+        <v>18.67330074310303</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9758933635847986</v>
+        <v>0.9463015647226174</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -4386,16 +4386,16 @@
         <v>0.5</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9870042194092827</v>
+        <v>0.9795577805590321</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1.749873161315918</v>
+        <v>18.69690418243408</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9822994987468672</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -4411,16 +4411,16 @@
         <v>0.75</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9886994704894744</v>
+        <v>0.9858134313125128</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1.815199851989746</v>
+        <v>18.71269941329956</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.9727852852852853</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -4436,16 +4436,16 @@
         <v>0.95</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9910692538767557</v>
+        <v>0.9878774356686003</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.926898956298828</v>
+        <v>18.98670196533203</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.9760452961672473</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
@@ -4461,16 +4461,16 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1.961946487426758</v>
+        <v>19.14501190185547</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
@@ -4482,7 +4482,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>rdeco</t>
+          <t>nk</t>
         </is>
       </c>
       <c r="B156" s="1" t="inlineStr">
@@ -4494,19 +4494,19 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9647058823529412</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1.982999995350838</v>
+        <v>2.229928970336914</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="I156" t="n">
         <v>50.00463005833873</v>
@@ -4519,16 +4519,16 @@
         <v>0.05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9708683473389356</v>
+        <v>0.8575738660008323</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>2.043750004842877</v>
+        <v>2.312052249908447</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9448966408268734</v>
+        <v>0.9351863354037268</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
@@ -4544,16 +4544,16 @@
         <v>0.25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9831897749374827</v>
+        <v>0.9810314685314685</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2.116499997675419</v>
+        <v>2.35670804977417</v>
       </c>
       <c r="G158" t="n">
-        <v>0.96875</v>
+        <v>0.9656385281385281</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -4569,16 +4569,16 @@
         <v>0.5</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9931506849315068</v>
+        <v>0.9856879983643426</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.23200000077486</v>
+        <v>2.414107322692871</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>2.403500001877546</v>
+        <v>2.532243728637695</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2.680900002643466</v>
+        <v>2.69618034362793</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.722000002861023</v>
+        <v>2.816915512084961</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4673,19 +4673,19 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1.947999998927116</v>
+        <v>2.245903015136719</v>
       </c>
       <c r="G163" t="n">
-        <v>0.88</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="I163" t="n">
         <v>50.00463005833873</v>
@@ -4698,16 +4698,16 @@
         <v>0.05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9578111337802391</v>
+        <v>0.9560283687943263</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1.961250003427267</v>
+        <v>2.28506326675415</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9229323308270676</v>
+        <v>0.9157620495006513</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -4723,16 +4723,16 @@
         <v>0.25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9874507514956953</v>
+        <v>0.9861032863849766</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>2.086249999701977</v>
+        <v>2.452194690704346</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9753344481605351</v>
+        <v>0.9740131578947369</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -4748,16 +4748,16 @@
         <v>0.5</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0.9883705206220419</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2.230500001460314</v>
+        <v>2.512812614440918</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.9779980657640233</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
@@ -4773,13 +4773,13 @@
         <v>0.75</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0.9977477477477478</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>2.373749999329448</v>
+        <v>2.583444118499756</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>2.810250002890825</v>
+        <v>2.772331237792969</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>3.071000002324581</v>
+        <v>2.820968627929688</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -4844,7 +4844,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>rpeak</t>
+          <t>pan-tomp</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -4856,19 +4856,19 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6746987951807228</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.7650000005960464</v>
+        <v>1.465082168579102</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H170" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.875</v>
       </c>
       <c r="I170" t="n">
         <v>50.00463005833873</v>
@@ -4881,19 +4881,19 @@
         <v>0.05</v>
       </c>
       <c r="D171" t="n">
-        <v>0.8893162393162393</v>
+        <v>0.96253804017042</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7773499950766564</v>
+        <v>1.476848125457764</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9217391304347826</v>
+        <v>0.9413398692810457</v>
       </c>
       <c r="H171" t="n">
-        <v>0.837962962962963</v>
+        <v>0.9617948717948718</v>
       </c>
       <c r="I171" t="n">
         <v>60.00555607000648</v>
@@ -4906,19 +4906,19 @@
         <v>0.25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.968421052631579</v>
+        <v>0.9772408963585434</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8257499989122152</v>
+        <v>1.511812210083008</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9696180555555556</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="I172" t="n">
         <v>62.50578757292342</v>
@@ -4931,13 +4931,13 @@
         <v>0.5</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0.9827534939042522</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8689999990165234</v>
+        <v>1.629471778869629</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -4956,13 +4956,13 @@
         <v>0.75</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0.9857052764347278</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9122500028461218</v>
+        <v>1.716732978820801</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -4981,13 +4981,13 @@
         <v>0.95</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0.9993150684931507</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9270000010728836</v>
+        <v>1.811575889587402</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9490000009536743</v>
+        <v>1.844882965087891</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -5035,19 +5035,19 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8125</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7780000045895576</v>
+        <v>1.371145248413086</v>
       </c>
       <c r="G177" t="n">
-        <v>0.864406779661017</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H177" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="I177" t="n">
         <v>50.00463005833873</v>
@@ -5060,19 +5060,19 @@
         <v>0.05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8197674418604651</v>
+        <v>0.9577759197324415</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7837499994784594</v>
+        <v>1.398682594299316</v>
       </c>
       <c r="G178" t="n">
-        <v>0.9254573170731708</v>
+        <v>0.9377525252525252</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7542857142857142</v>
+        <v>0.9741379310344828</v>
       </c>
       <c r="I178" t="n">
         <v>55.00509306417261</v>
@@ -5085,16 +5085,16 @@
         <v>0.25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9672619047619048</v>
+        <v>0.982842509603073</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8122499994933605</v>
+        <v>1.465678215026855</v>
       </c>
       <c r="G179" t="n">
-        <v>0.985576923076923</v>
+        <v>0.9758933635847986</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -5110,16 +5110,16 @@
         <v>0.5</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0.9870042194092827</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8605000004172325</v>
+        <v>1.53958797454834</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0.9822994987468672</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -5135,13 +5135,13 @@
         <v>0.75</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0.9886994704894744</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9064999967813492</v>
+        <v>1.649796962738037</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5160,13 +5160,13 @@
         <v>0.95</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0.9910692538767557</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9212500005960464</v>
+        <v>1.761257648468018</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9230000004172325</v>
+        <v>1.836061477661133</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -5206,7 +5206,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>two-avg</t>
+          <t>rdeco</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -5218,19 +5218,19 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>7.120847702026367</v>
+        <v>1.895000003278255</v>
       </c>
       <c r="G184" t="n">
         <v>0.9347826086956522</v>
       </c>
       <c r="H184" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>50.00463005833873</v>
@@ -5243,19 +5243,19 @@
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9632019115890084</v>
+        <v>0.9708683473389356</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>7.145881652832031</v>
+        <v>1.97880000025034</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9389795918367347</v>
+        <v>0.9448966408268734</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9728571428571429</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>60.00555607000648</v>
@@ -5268,16 +5268,16 @@
         <v>0.25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9831897749374827</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>7.183432579040527</v>
+        <v>2.075500000733882</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9701298701298702</v>
+        <v>0.96875</v>
       </c>
       <c r="H186" t="n">
         <v>1</v>
@@ -5293,13 +5293,13 @@
         <v>0.5</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9882433356117566</v>
+        <v>0.9931506849315068</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>7.308006286621094</v>
+        <v>2.144500002264977</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>7.33029842376709</v>
+        <v>2.32024999987334</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>7.346618175506592</v>
+        <v>2.604450001753866</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>7.349967956542969</v>
+        <v>2.664000000804663</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -5397,16 +5397,16 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>7.126808166503906</v>
+        <v>1.928999997675419</v>
       </c>
       <c r="G191" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.88</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -5422,16 +5422,16 @@
         <v>0.05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9594965675057209</v>
+        <v>0.9578111337802391</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>7.146656513214111</v>
+        <v>1.937999999150634</v>
       </c>
       <c r="G192" t="n">
-        <v>0.9332513416815742</v>
+        <v>0.9229323308270676</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -5447,16 +5447,16 @@
         <v>0.25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9874507514956953</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>7.16477632522583</v>
+        <v>2.061250001192093</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9753344481605351</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -5472,16 +5472,16 @@
         <v>0.5</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9897863470557582</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>7.289290428161621</v>
+        <v>2.23200000077486</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9821371610845295</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>7.320821285247803</v>
+        <v>2.343749994412065</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>7.34245777130127</v>
+        <v>2.819749997928739</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>7.345914840698242</v>
+        <v>2.913999989628792</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -5568,7 +5568,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>unsw</t>
+          <t>rpeak</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -5580,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9662921348314607</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>14.43400000035763</v>
+        <v>0.7300000041723251</v>
       </c>
       <c r="G198" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="I198" t="n">
         <v>50.00463005833873</v>
@@ -5605,19 +5605,19 @@
         <v>0.05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9708960328317373</v>
+        <v>0.8893162393162393</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>14.77689999453724</v>
+        <v>0.7438499996904284</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9434920634920635</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0.837962962962963</v>
       </c>
       <c r="I199" t="n">
         <v>60.00555607000648</v>
@@ -5630,16 +5630,16 @@
         <v>0.25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9851827817434566</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>15.04124999977648</v>
+        <v>0.7810000004246831</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9707983193277311</v>
+        <v>0.9696180555555556</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>15.55900000035763</v>
+        <v>0.8045000010170043</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>16.03074999712408</v>
+        <v>0.8237500013783574</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>17.54104999937117</v>
+        <v>0.8643000019714236</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>17.59800000488758</v>
+        <v>0.8680000007152557</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -5759,19 +5759,19 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0.958904109589041</v>
+        <v>0.8125</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>14.87200000137091</v>
+        <v>0.75</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I205" t="n">
         <v>50.00463005833873</v>
@@ -5784,19 +5784,19 @@
         <v>0.05</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9662478583666476</v>
+        <v>0.8197674418604651</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>14.88475000299513</v>
+        <v>0.7654999978840351</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9347126929674099</v>
+        <v>0.9254573170731708</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0.7542857142857142</v>
       </c>
       <c r="I206" t="n">
         <v>55.00509306417261</v>
@@ -5809,16 +5809,16 @@
         <v>0.25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9904248686202903</v>
+        <v>0.9672619047619048</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>15.20875000022352</v>
+        <v>0.7969999972265214</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9810314685314685</v>
+        <v>0.985576923076923</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>15.44700000062585</v>
+        <v>0.8225000016391277</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>15.85275000147521</v>
+        <v>0.8369999988935888</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>16.2430000025779</v>
+        <v>0.8595000002533197</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>17.95199999958277</v>
+        <v>0.9340000003576279</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>wqrs</t>
+          <t>two-avg</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -5942,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>183.9888095855713</v>
+        <v>6.811857223510742</v>
       </c>
       <c r="G212" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H212" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I212" t="n">
         <v>50.00463005833873</v>
@@ -5967,19 +5967,19 @@
         <v>0.05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.686984126984127</v>
+        <v>0.9632019115890084</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>184.1085195541382</v>
+        <v>6.824159622192383</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9690929878048781</v>
+        <v>0.9389795918367347</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5233307453416149</v>
+        <v>0.9728571428571429</v>
       </c>
       <c r="I213" t="n">
         <v>60.00555607000648</v>
@@ -5992,19 +5992,19 @@
         <v>0.25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9022727272727273</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>184.447705745697</v>
+        <v>6.836235523223877</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0.9701298701298702</v>
       </c>
       <c r="H214" t="n">
-        <v>0.8237179487179487</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>62.50578757292342</v>
@@ -6017,19 +6017,19 @@
         <v>0.5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9713349713349714</v>
+        <v>0.9882433356117566</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>186.2584352493286</v>
+        <v>6.847023963928223</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>68.00629687934068</v>
@@ -6042,19 +6042,19 @@
         <v>0.75</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9839968774395004</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>186.9102120399475</v>
+        <v>6.856620311737061</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9727852852852853</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>73.50680618575794</v>
@@ -6067,19 +6067,19 @@
         <v>0.95</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9891182795698925</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>187.6991271972656</v>
+        <v>6.874585151672363</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0.9791445035460993</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>92.00851930734326</v>
@@ -6092,19 +6092,19 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0.989247311827957</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>187.8342628479004</v>
+        <v>6.879091262817383</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0.9803921568627451</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>100.0092601166775</v>
@@ -6121,19 +6121,19 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>183.9067935943604</v>
+        <v>6.820917129516602</v>
       </c>
       <c r="G219" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H219" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>50.00463005833873</v>
@@ -6146,19 +6146,19 @@
         <v>0.05</v>
       </c>
       <c r="D220" t="n">
-        <v>0.8010752688172043</v>
+        <v>0.9594965675057209</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>184.017539024353</v>
+        <v>6.830751895904541</v>
       </c>
       <c r="G220" t="n">
-        <v>0.9614583333333333</v>
+        <v>0.9332513416815742</v>
       </c>
       <c r="H220" t="n">
-        <v>0.6729249011857708</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>55.00509306417261</v>
@@ -6171,19 +6171,19 @@
         <v>0.25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9475546975546976</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>184.2423677444458</v>
+        <v>6.844639778137207</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H221" t="n">
-        <v>0.9298158287705327</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>74.00685248634132</v>
@@ -6196,19 +6196,19 @@
         <v>0.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9864840182648402</v>
+        <v>0.9897863470557582</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>185.3859424591064</v>
+        <v>6.855964660644531</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>0.9821371610845295</v>
       </c>
       <c r="H222" t="n">
-        <v>0.9749843652282677</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>82.00759329567552</v>
@@ -6221,19 +6221,19 @@
         <v>0.75</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9882352941176471</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>186.3875985145569</v>
+        <v>6.873369216918945</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>89.50828780442633</v>
@@ -6246,19 +6246,19 @@
         <v>0.95</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9906440185302934</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>187.4592900276184</v>
+        <v>6.983339786529541</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0.9820616883116883</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>107.0099083248449</v>
@@ -6271,26 +6271,750 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9911504424778761</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>187.5109672546387</v>
+        <v>7.014036178588867</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>112.0103713306788</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>unsw</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9662921348314607</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>14.49600000027567</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.9361702127659575</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>50.00463005833873</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="n"/>
+      <c r="C227" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9708960328317373</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14.77074999399483</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.9434920634920635</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>60.00555607000648</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="n"/>
+      <c r="C228" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9851827817434566</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>14.88200000114739</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.9707983193277311</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>62.50578757292342</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="n"/>
+      <c r="C229" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>15.26100000180304</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>68.00629687934068</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="n"/>
+      <c r="C230" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>15.81549999862909</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>73.50680618575794</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="n"/>
+      <c r="C231" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>17.0871999968309</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>92.00851930734326</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="n"/>
+      <c r="C232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>17.24500000104308</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>100.0092601166775</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.958904109589041</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>14.66400000080466</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>50.00463005833873</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="n"/>
+      <c r="C234" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.9662478583666476</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>14.89424999803305</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.9347126929674099</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>55.00509306417261</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="n"/>
+      <c r="C235" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.9904248686202903</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>15.06774999760091</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.9810314685314685</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>74.00685248634132</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="n"/>
+      <c r="C236" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>15.24999999254942</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>82.00759329567552</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="n"/>
+      <c r="C237" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>15.91275000045425</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>89.50828780442633</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="n"/>
+      <c r="C238" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>16.31675000023097</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>107.0099083248449</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="n"/>
+      <c r="C239" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>17.68099999427795</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>112.0103713306788</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>wqrs</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>185.250997543335</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="I240" t="n">
+        <v>50.00463005833873</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="n"/>
+      <c r="C241" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.686984126984127</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>185.535192489624</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.9690929878048781</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.5233307453416149</v>
+      </c>
+      <c r="I241" t="n">
+        <v>60.00555607000648</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="n"/>
+      <c r="C242" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9022727272727273</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>186.1895322799683</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.8237179487179487</v>
+      </c>
+      <c r="I242" t="n">
+        <v>62.50578757292342</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="n"/>
+      <c r="C243" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9713349713349714</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>187.712550163269</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="I243" t="n">
+        <v>68.00629687934068</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="n"/>
+      <c r="C244" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.9839968774395004</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>187.8487467765808</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.9727852852852853</v>
+      </c>
+      <c r="I244" t="n">
+        <v>73.50680618575794</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="n"/>
+      <c r="C245" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.9891182795698925</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>187.9914045333862</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.9791445035460993</v>
+      </c>
+      <c r="I245" t="n">
+        <v>92.00851930734326</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="n"/>
+      <c r="C246" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.989247311827957</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>188.0419254302979</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.9803921568627451</v>
+      </c>
+      <c r="I246" t="n">
+        <v>100.0092601166775</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>185.2278709411621</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I247" t="n">
+        <v>50.00463005833873</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="n"/>
+      <c r="C248" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.8010752688172043</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>185.3687167167664</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.9614583333333333</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.6729249011857708</v>
+      </c>
+      <c r="I248" t="n">
+        <v>55.00509306417261</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="n"/>
+      <c r="C249" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.9475546975546976</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>185.7413053512573</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.9298158287705327</v>
+      </c>
+      <c r="I249" t="n">
+        <v>74.00685248634132</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="n"/>
+      <c r="C250" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.9864840182648402</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>186.3017082214355</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.9749843652282677</v>
+      </c>
+      <c r="I250" t="n">
+        <v>82.00759329567552</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="n"/>
+      <c r="C251" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>187.7459287643433</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="I251" t="n">
+        <v>89.50828780442633</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="n"/>
+      <c r="C252" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9906440185302934</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>188.4111166000366</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.9820616883116883</v>
+      </c>
+      <c r="I252" t="n">
+        <v>107.0099083248449</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="n"/>
+      <c r="C253" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>188.8058185577393</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="I253" t="n">
+        <v>112.0103713306788</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="A30:A43"/>
@@ -6307,6 +7031,8 @@
     <mergeCell ref="A184:A197"/>
     <mergeCell ref="A198:A211"/>
     <mergeCell ref="A212:A225"/>
+    <mergeCell ref="A226:A239"/>
+    <mergeCell ref="A240:A253"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
@@ -6339,6 +7065,10 @@
     <mergeCell ref="B205:B211"/>
     <mergeCell ref="B212:B218"/>
     <mergeCell ref="B219:B225"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="B233:B239"/>
+    <mergeCell ref="B240:B246"/>
+    <mergeCell ref="B247:B253"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Algorithm_tester/data_autosave/real_sex_arr.xlsx
+++ b/Algorithm_tester/data_autosave/real_sex_arr.xlsx
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>154.0107727050781</v>
+        <v>154.3421745300293</v>
       </c>
       <c r="G2" t="n">
         <v>0.9411764705882353</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>155.1167488098145</v>
+        <v>155.0932168960571</v>
       </c>
       <c r="G3" t="n">
         <v>0.9465653153153153</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>157.5561165809631</v>
+        <v>161.3766551017761</v>
       </c>
       <c r="G4" t="n">
         <v>0.96875</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>161.9099378585815</v>
+        <v>164.0599966049194</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>163.1374955177307</v>
+        <v>165.1789546012878</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>163.9590740203857</v>
+        <v>166.6758894920349</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>164.0028953552246</v>
+        <v>167.9260730743408</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>152.8279781341553</v>
+        <v>155.7269096374512</v>
       </c>
       <c r="G9" t="n">
         <v>0.9069767441860465</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.3404331207275</v>
+        <v>157.5939655303955</v>
       </c>
       <c r="G10" t="n">
         <v>0.9327346041055717</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>159.3799591064453</v>
+        <v>161.1878275871277</v>
       </c>
       <c r="G11" t="n">
         <v>0.9745192307692307</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>161.7175340652466</v>
+        <v>164.2074584960938</v>
       </c>
       <c r="G12" t="n">
         <v>0.9821371610845295</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.6967191696167</v>
+        <v>165.1695966720581</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>164.1083359718323</v>
+        <v>167.5056219100952</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>164.823055267334</v>
+        <v>169.5480346679688</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.49103355407715</v>
+        <v>64.29481506347656</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>64.53365087509155</v>
+        <v>65.14483690261841</v>
       </c>
       <c r="G17" t="n">
         <v>0.2177222222222223</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>66.15144014358521</v>
+        <v>66.25592708587646</v>
       </c>
       <c r="G18" t="n">
         <v>0.8490287162162162</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>66.58899784088135</v>
+        <v>67.31152534484863</v>
       </c>
       <c r="G19" t="n">
         <v>0.9041053921568627</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>67.22843647003174</v>
+        <v>67.80040264129639</v>
       </c>
       <c r="G20" t="n">
         <v>0.9652093596059114</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>67.58427619934082</v>
+        <v>68.44706535339355</v>
       </c>
       <c r="G21" t="n">
         <v>0.9773737373737373</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>68.12429428100586</v>
+        <v>69.82707977294922</v>
       </c>
       <c r="G22" t="n">
         <v>0.9777777777777777</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>62.957763671875</v>
+        <v>63.42506408691406</v>
       </c>
       <c r="G23" t="n">
         <v>0.2222222222222222</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>63.24237585067749</v>
+        <v>63.99518251419067</v>
       </c>
       <c r="G24" t="n">
         <v>0.3729166666666667</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>65.05358219146729</v>
+        <v>65.63848257064819</v>
       </c>
       <c r="G25" t="n">
         <v>0.8696013289036544</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>66.01154804229736</v>
+        <v>66.43283367156982</v>
       </c>
       <c r="G26" t="n">
         <v>0.949874686716792</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>66.39152765274048</v>
+        <v>66.99866056442261</v>
       </c>
       <c r="G27" t="n">
         <v>0.9639550264550265</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>68.07518005371094</v>
+        <v>69.34463977813721</v>
       </c>
       <c r="G28" t="n">
         <v>0.9754573170731707</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>68.15505027770996</v>
+        <v>69.82898712158203</v>
       </c>
       <c r="G29" t="n">
         <v>0.975609756097561</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>19.03915405273438</v>
+        <v>18.71371269226074</v>
       </c>
       <c r="G30" t="n">
         <v>0.9148936170212766</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.09270286560059</v>
+        <v>18.75605583190918</v>
       </c>
       <c r="G31" t="n">
         <v>0.9413398692810457</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.32239532470703</v>
+        <v>18.98068189620972</v>
       </c>
       <c r="G32" t="n">
         <v>0.9696969696969697</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>19.54007148742676</v>
+        <v>19.18351650238037</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.8591947555542</v>
+        <v>19.74016427993774</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>20.46982049942017</v>
+        <v>19.86713409423828</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.09384536743164</v>
+        <v>20.81394195556641</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>17.81487464904785</v>
+        <v>17.45820045471191</v>
       </c>
       <c r="G37" t="n">
         <v>0.8936170212765957</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>18.04429292678833</v>
+        <v>17.64339208602905</v>
       </c>
       <c r="G38" t="n">
         <v>0.9233476132190942</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>18.90629529953003</v>
+        <v>18.54854822158813</v>
       </c>
       <c r="G39" t="n">
         <v>0.9773989898989899</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.30785179138184</v>
+        <v>18.91803741455078</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>19.60122585296631</v>
+        <v>19.317626953125</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>20.04289627075195</v>
+        <v>19.51766014099121</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.23911476135254</v>
+        <v>19.90914344787598</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1598,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>18.8300609588623</v>
+        <v>16.19720458984375</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="I44" t="n">
         <v>50.00463005833873</v>
@@ -1623,16 +1623,16 @@
         <v>0.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9697415329768271</v>
+        <v>0.9667708333333334</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>18.84933710098267</v>
+        <v>16.25416278839111</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9413398692810457</v>
+        <v>0.9429870129870129</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1648,16 +1648,16 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9837366640645329</v>
+        <v>0.9789862914862915</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.08326148986816</v>
+        <v>16.346275806427</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9707983193277311</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>19.27542686462402</v>
+        <v>16.47651195526123</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>19.59449052810669</v>
+        <v>16.58898591995239</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>20.21092176437378</v>
+        <v>16.65536165237427</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>20.84779739379883</v>
+        <v>17.64702796936035</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>17.60411262512207</v>
+        <v>15.87510108947754</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>50.00463005833873</v>
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>17.81994104385376</v>
+        <v>16.03418588638306</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9233476132190942</v>
+        <v>0.9237440191387559</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -1827,16 +1827,16 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9880902922032959</v>
+        <v>0.9876327658955333</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>18.65988969802856</v>
+        <v>16.23702049255371</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9773989898989899</v>
+        <v>0.9755681818181818</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>19.08159255981445</v>
+        <v>16.37482643127441</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>19.36560869216919</v>
+        <v>16.50357246398926</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>19.8180079460144</v>
+        <v>16.6018009185791</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>19.95968818664551</v>
+        <v>16.6170597076416</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.358913421630859</v>
+        <v>2.351999282836914</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.415716648101807</v>
+        <v>2.422285079956055</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2.439558506011963</v>
+        <v>2.450525760650635</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2.457022666931152</v>
+        <v>2.475738525390625</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.488851547241211</v>
+        <v>2.517759799957275</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.510929107666016</v>
+        <v>3.821802139282226</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>3.885746002197266</v>
+        <v>5.667924880981445</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2.3651123046875</v>
+        <v>2.382993698120117</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.402603626251221</v>
+        <v>2.395272254943848</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2.428114414215088</v>
+        <v>2.459466457366943</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2.463579177856445</v>
+        <v>2.484440803527832</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2.481698989868164</v>
+        <v>2.531290054321289</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.677500247955322</v>
+        <v>3.314852714538574</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>5.832195281982422</v>
+        <v>3.896951675415039</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>84.90800857543945</v>
+        <v>84.2127799987793</v>
       </c>
       <c r="G72" t="n">
         <v>0.90625</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>85.21748781204224</v>
+        <v>84.62370634078979</v>
       </c>
       <c r="G73" t="n">
         <v>0.9321022727272726</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>85.56473255157471</v>
+        <v>84.94693040847778</v>
       </c>
       <c r="G74" t="n">
         <v>0.9619675456389453</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>85.95156669616699</v>
+        <v>85.30795574188232</v>
       </c>
       <c r="G75" t="n">
         <v>0.9864864864864865</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>86.39538288116455</v>
+        <v>85.6514573097229</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>87.15928792953491</v>
+        <v>86.55260801315308</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>87.17989921569824</v>
+        <v>86.86399459838867</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>85.36887168884277</v>
+        <v>84.77306365966797</v>
       </c>
       <c r="G79" t="n">
         <v>0.9166666666666666</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>85.4794979095459</v>
+        <v>85.01547574996948</v>
       </c>
       <c r="G80" t="n">
         <v>0.9351219512195122</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>86.11446619033813</v>
+        <v>85.58571338653564</v>
       </c>
       <c r="G81" t="n">
         <v>0.9757549361207898</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>86.49885654449463</v>
+        <v>85.96289157867432</v>
       </c>
       <c r="G82" t="n">
         <v>0.9782505910165484</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>86.91239356994629</v>
+        <v>86.22878789901733</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>87.89920806884766</v>
+        <v>87.39805221557617</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>90.12603759765625</v>
+        <v>89.70904350280762</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>10.31589508056641</v>
+        <v>9.984970092773438</v>
       </c>
       <c r="G86" t="n">
         <v>0.9215686274509803</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>10.36816835403442</v>
+        <v>10.41723489761353</v>
       </c>
       <c r="G87" t="n">
         <v>0.9431501831501832</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>10.78271865844727</v>
+        <v>10.70833206176758</v>
       </c>
       <c r="G88" t="n">
         <v>0.9725877192982456</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>12.30835914611816</v>
+        <v>12.14396953582764</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>13.2947564125061</v>
+        <v>13.25953006744385</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>14.41271305084229</v>
+        <v>14.23500776290894</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>14.44602012634277</v>
+        <v>14.32514190673828</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>8.378028869628906</v>
+        <v>8.430242538452148</v>
       </c>
       <c r="G93" t="n">
         <v>0.925</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>9.25600528717041</v>
+        <v>8.969008922576904</v>
       </c>
       <c r="G94" t="n">
         <v>0.938225338491296</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>10.28633117675781</v>
+        <v>10.02657413482666</v>
       </c>
       <c r="G95" t="n">
         <v>0.9773989898989899</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>11.23309135437012</v>
+        <v>11.12651824951172</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>12.08710670471191</v>
+        <v>12.02291250228882</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>13.89175653457642</v>
+        <v>13.83477449417114</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>14.18113708496094</v>
+        <v>14.26887512207031</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2.241999998688698</v>
+        <v>2.289000004529953</v>
       </c>
       <c r="G100" t="n">
         <v>0.5208333333333334</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2.262849994748831</v>
+        <v>2.294299999810755</v>
       </c>
       <c r="G101" t="n">
         <v>0.659032634032634</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2.302250001579523</v>
+        <v>2.315500000491738</v>
       </c>
       <c r="G102" t="n">
         <v>0.9556650246305418</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2.331499999854714</v>
+        <v>2.37300000153482</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>2.387499997392297</v>
+        <v>2.419250001199543</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>2.462700001522899</v>
+        <v>2.489950001984835</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>2.521999999880791</v>
+        <v>2.573999997228384</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.256999999284744</v>
+        <v>2.282999999821186</v>
       </c>
       <c r="G107" t="n">
         <v>0.3571428571428572</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.289249998750165</v>
+        <v>2.300250000320375</v>
       </c>
       <c r="G108" t="n">
         <v>0.4196428571428572</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2.329499999061227</v>
+        <v>2.361500001512468</v>
       </c>
       <c r="G109" t="n">
         <v>0.8235632183908046</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>2.359499998390675</v>
+        <v>2.411999998614192</v>
       </c>
       <c r="G110" t="n">
         <v>0.9401162790697675</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2.445500001311302</v>
+        <v>2.456749998964369</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>2.496999997645617</v>
+        <v>2.553000000305474</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2.501999996602535</v>
+        <v>2.559999998658895</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1.91187858581543</v>
+        <v>1.862287521362305</v>
       </c>
       <c r="G114" t="n">
         <v>0.7659574468085106</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1.927328109741211</v>
+        <v>1.873147487640381</v>
       </c>
       <c r="G115" t="n">
         <v>0.9349184782608696</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1.958012580871582</v>
+        <v>1.931309700012207</v>
       </c>
       <c r="G116" t="n">
         <v>0.9575757575757576</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2.000927925109863</v>
+        <v>1.973628997802734</v>
       </c>
       <c r="G117" t="n">
         <v>0.9897959183673469</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>2.019107341766357</v>
+        <v>2.026200294494629</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>2.046489715576172</v>
+        <v>2.102780342102051</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2.052068710327148</v>
+        <v>2.105951309204102</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1.902103424072266</v>
+        <v>1.849174499511719</v>
       </c>
       <c r="G121" t="n">
         <v>0.9166666666666666</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1.946926116943359</v>
+        <v>1.888036727905273</v>
       </c>
       <c r="G122" t="n">
         <v>0.9357057416267942</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1.998960971832275</v>
+        <v>1.97446346282959</v>
       </c>
       <c r="G123" t="n">
         <v>0.9629629629629629</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>2.01117992401123</v>
+        <v>2.027511596679688</v>
       </c>
       <c r="G124" t="n">
         <v>0.978219696969697</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>2.04700231552124</v>
+        <v>2.101123332977295</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2.063393592834473</v>
+        <v>2.139747142791748</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>2.138137817382812</v>
+        <v>3.436803817749023</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>2.846956253051758</v>
+        <v>2.741098403930664</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2.864885330200195</v>
+        <v>2.829492092132568</v>
       </c>
       <c r="G129" t="n">
         <v>0.2315126050420168</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>3.151476383209229</v>
+        <v>3.129959106445312</v>
       </c>
       <c r="G130" t="n">
         <v>0.9294642857142857</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>3.289937973022461</v>
+        <v>3.301620483398438</v>
       </c>
       <c r="G131" t="n">
         <v>0.9699820788530467</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>3.482639789581299</v>
+        <v>3.473401069641113</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>3.977799415588379</v>
+        <v>3.90859842300415</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>4.431247711181641</v>
+        <v>4.461765289306641</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>2.768993377685547</v>
+        <v>2.876996994018555</v>
       </c>
       <c r="G135" t="n">
         <v>0.6511627906976745</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>3.148198127746582</v>
+        <v>3.121674060821533</v>
       </c>
       <c r="G136" t="n">
         <v>0.7083333333333333</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>3.21584939956665</v>
+        <v>3.240525722503662</v>
       </c>
       <c r="G137" t="n">
         <v>0.9297619047619048</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>3.352880477905273</v>
+        <v>3.389954566955566</v>
       </c>
       <c r="G138" t="n">
         <v>0.972953216374269</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>3.598630428314209</v>
+        <v>3.554284572601318</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>4.552900791168213</v>
+        <v>4.751920700073242</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>5.050897598266602</v>
+        <v>4.940032958984375</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>18.65220069885254</v>
+        <v>17.97890663146973</v>
       </c>
       <c r="G142" t="n">
         <v>0.9</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>18.67023706436157</v>
+        <v>17.99712181091309</v>
       </c>
       <c r="G143" t="n">
         <v>0.9173449612403101</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>18.68468523025513</v>
+        <v>18.03129911422729</v>
       </c>
       <c r="G144" t="n">
         <v>0.94173140954495</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>18.70012283325195</v>
+        <v>18.32759380340576</v>
       </c>
       <c r="G145" t="n">
         <v>0.9660919540229885</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>18.72020959854126</v>
+        <v>18.37611198425293</v>
       </c>
       <c r="G146" t="n">
         <v>0.9703654188948306</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>18.74079704284668</v>
+        <v>18.51041316986084</v>
       </c>
       <c r="G147" t="n">
         <v>0.9770577395577396</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>18.75615119934082</v>
+        <v>18.52083206176758</v>
       </c>
       <c r="G148" t="n">
         <v>0.9777777777777777</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>18.62502098083496</v>
+        <v>17.93694496154785</v>
       </c>
       <c r="G149" t="n">
         <v>0.78</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>18.64218711853027</v>
+        <v>18.00495386123657</v>
       </c>
       <c r="G150" t="n">
         <v>0.8950109649122807</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>18.67330074310303</v>
+        <v>18.0823802947998</v>
       </c>
       <c r="G151" t="n">
         <v>0.9463015647226174</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>18.69690418243408</v>
+        <v>18.31400394439697</v>
       </c>
       <c r="G152" t="n">
         <v>0.9629629629629629</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>18.71269941329956</v>
+        <v>18.49383115768433</v>
       </c>
       <c r="G153" t="n">
         <v>0.9727852852852853</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>18.98670196533203</v>
+        <v>18.52548122406006</v>
       </c>
       <c r="G154" t="n">
         <v>0.9760452961672473</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>19.14501190185547</v>
+        <v>18.54085922241211</v>
       </c>
       <c r="G155" t="n">
         <v>0.9761904761904762</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>2.229928970336914</v>
+        <v>2.264976501464844</v>
       </c>
       <c r="G156" t="n">
         <v>0.7419354838709677</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>2.312052249908447</v>
+        <v>2.275550365447998</v>
       </c>
       <c r="G157" t="n">
         <v>0.9351863354037268</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2.35670804977417</v>
+        <v>2.339959144592285</v>
       </c>
       <c r="G158" t="n">
         <v>0.9656385281385281</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.414107322692871</v>
+        <v>2.394914627075195</v>
       </c>
       <c r="G159" t="n">
         <v>0.9897959183673469</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>2.532243728637695</v>
+        <v>2.518713474273682</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2.69618034362793</v>
+        <v>2.709043025970459</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.816915512084961</v>
+        <v>2.812862396240234</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2.245903015136719</v>
+        <v>2.238035202026367</v>
       </c>
       <c r="G163" t="n">
         <v>0.8958333333333334</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>2.28506326675415</v>
+        <v>2.32386589050293</v>
       </c>
       <c r="G164" t="n">
         <v>0.9157620495006513</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>2.452194690704346</v>
+        <v>2.412319183349609</v>
       </c>
       <c r="G165" t="n">
         <v>0.9740131578947369</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2.512812614440918</v>
+        <v>2.499938011169434</v>
       </c>
       <c r="G166" t="n">
         <v>0.9779980657640233</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>2.583444118499756</v>
+        <v>2.58791446685791</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>2.772331237792969</v>
+        <v>2.786517143249512</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>2.820968627929688</v>
+        <v>2.807855606079102</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1.465082168579102</v>
+        <v>1.472711563110352</v>
       </c>
       <c r="G170" t="n">
         <v>0.9411764705882353</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1.476848125457764</v>
+        <v>1.475012302398682</v>
       </c>
       <c r="G171" t="n">
         <v>0.9413398692810457</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1.511812210083008</v>
+        <v>1.549422740936279</v>
       </c>
       <c r="G172" t="n">
         <v>0.9705882352941176</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1.629471778869629</v>
+        <v>1.671075820922852</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1.716732978820801</v>
+        <v>1.761794090270996</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1.811575889587402</v>
+        <v>1.83560848236084</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1.844882965087891</v>
+        <v>2.007961273193359</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1.371145248413086</v>
+        <v>1.369237899780273</v>
       </c>
       <c r="G177" t="n">
         <v>0.9210526315789473</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1.398682594299316</v>
+        <v>1.401960849761963</v>
       </c>
       <c r="G178" t="n">
         <v>0.9377525252525252</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1.465678215026855</v>
+        <v>1.472771167755127</v>
       </c>
       <c r="G179" t="n">
         <v>0.9758933635847986</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1.53958797454834</v>
+        <v>1.625776290893555</v>
       </c>
       <c r="G180" t="n">
         <v>0.9822994987468672</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1.649796962738037</v>
+        <v>1.875698566436768</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1.761257648468018</v>
+        <v>2.008259296417236</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1.836061477661133</v>
+        <v>2.036094665527344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1.895000003278255</v>
+        <v>1.875</v>
       </c>
       <c r="G184" t="n">
         <v>0.9347826086956522</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1.97880000025034</v>
+        <v>1.982550000585616</v>
       </c>
       <c r="G185" t="n">
         <v>0.9448966408268734</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>2.075500000733882</v>
+        <v>2.063499998301268</v>
       </c>
       <c r="G186" t="n">
         <v>0.96875</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>2.144500002264977</v>
+        <v>2.110500000417233</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>2.32024999987334</v>
+        <v>2.308250000700355</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>2.604450001753866</v>
+        <v>2.523149997368455</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>2.664000000804663</v>
+        <v>2.635999999940395</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1.928999997675419</v>
+        <v>1.913000002503395</v>
       </c>
       <c r="G191" t="n">
         <v>0.88</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1.937999999150634</v>
+        <v>1.926500000059605</v>
       </c>
       <c r="G192" t="n">
         <v>0.9229323308270676</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>2.061250001192093</v>
+        <v>2.070749998092651</v>
       </c>
       <c r="G193" t="n">
         <v>0.9753344481605351</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>2.23200000077486</v>
+        <v>2.165000000968575</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>2.343749994412065</v>
+        <v>2.323750000447035</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>2.819749997928739</v>
+        <v>2.747000001370907</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>2.913999989628792</v>
+        <v>2.844000000506639</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7300000041723251</v>
+        <v>0.7529999986290932</v>
       </c>
       <c r="G198" t="n">
         <v>0.9056603773584906</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7438499996904284</v>
+        <v>0.7583499977365136</v>
       </c>
       <c r="G199" t="n">
         <v>0.9217391304347826</v>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7810000004246831</v>
+        <v>0.7897499976679683</v>
       </c>
       <c r="G200" t="n">
         <v>0.9696180555555556</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8045000010170043</v>
+        <v>0.8110000025480986</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.8237500013783574</v>
+        <v>0.8549999995157123</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8643000019714236</v>
+        <v>0.8944999979808926</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8680000007152557</v>
+        <v>0.8969999998807907</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.75</v>
+        <v>0.7730000019073486</v>
       </c>
       <c r="G205" t="n">
         <v>0.864406779661017</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7654999978840351</v>
+        <v>0.7854999983683228</v>
       </c>
       <c r="G206" t="n">
         <v>0.9254573170731708</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7969999972265214</v>
+        <v>0.8079999983310699</v>
       </c>
       <c r="G207" t="n">
         <v>0.985576923076923</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8225000016391277</v>
+        <v>0.8355000019073486</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8369999988935888</v>
+        <v>0.8842500010505319</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8595000002533197</v>
+        <v>0.9102499987930059</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.9340000003576279</v>
+        <v>0.915999997407198</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>6.811857223510742</v>
+        <v>6.432056427001953</v>
       </c>
       <c r="G212" t="n">
         <v>0.9347826086956522</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>6.824159622192383</v>
+        <v>6.435930728912354</v>
       </c>
       <c r="G213" t="n">
         <v>0.9389795918367347</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>6.836235523223877</v>
+        <v>6.457328796386719</v>
       </c>
       <c r="G214" t="n">
         <v>0.9701298701298702</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>6.847023963928223</v>
+        <v>6.548881530761719</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>6.856620311737061</v>
+        <v>6.561279296875</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>6.874585151672363</v>
+        <v>6.60632848739624</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>6.879091262817383</v>
+        <v>6.619930267333984</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>6.820917129516602</v>
+        <v>6.440877914428711</v>
       </c>
       <c r="G219" t="n">
         <v>0.9166666666666666</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>6.830751895904541</v>
+        <v>6.441950798034668</v>
       </c>
       <c r="G220" t="n">
         <v>0.9332513416815742</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>6.844639778137207</v>
+        <v>6.469070911407471</v>
       </c>
       <c r="G221" t="n">
         <v>0.9772727272727273</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>6.855964660644531</v>
+        <v>6.562948226928711</v>
       </c>
       <c r="G222" t="n">
         <v>0.9821371610845295</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>6.873369216918945</v>
+        <v>6.596684455871582</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>6.983339786529541</v>
+        <v>6.627678871154785</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>7.014036178588867</v>
+        <v>6.633996963500977</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>14.49600000027567</v>
+        <v>14.5819999948144</v>
       </c>
       <c r="G226" t="n">
         <v>0.9361702127659575</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>14.77074999399483</v>
+        <v>14.89424999784678</v>
       </c>
       <c r="G227" t="n">
         <v>0.9434920634920635</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>14.88200000114739</v>
+        <v>15.10200000088662</v>
       </c>
       <c r="G228" t="n">
         <v>0.9707983193277311</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>15.26100000180304</v>
+        <v>15.60749999992549</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>15.81549999862909</v>
+        <v>16.20075000170618</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>17.0871999968309</v>
+        <v>17.57595000006258</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>17.24500000104308</v>
+        <v>17.62999999895692</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>14.66400000080466</v>
+        <v>14.81499999761581</v>
       </c>
       <c r="G233" t="n">
         <v>0.9210526315789473</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>14.89424999803305</v>
+        <v>15.08950000163168</v>
       </c>
       <c r="G234" t="n">
         <v>0.9347126929674099</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>15.06774999760091</v>
+        <v>15.31049999967217</v>
       </c>
       <c r="G235" t="n">
         <v>0.9810314685314685</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>15.24999999254942</v>
+        <v>15.74950000084937</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>15.91275000045425</v>
+        <v>16.29300000239164</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>16.31675000023097</v>
+        <v>16.88125000055879</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>17.68099999427795</v>
+        <v>17.98200000077486</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>185.250997543335</v>
+        <v>182.3201179504395</v>
       </c>
       <c r="G240" t="n">
         <v>0.9565217391304348</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>185.535192489624</v>
+        <v>183.2249045372009</v>
       </c>
       <c r="G241" t="n">
         <v>0.9690929878048781</v>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>186.1895322799683</v>
+        <v>183.4354400634766</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>187.712550163269</v>
+        <v>184.0078830718994</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>187.8487467765808</v>
+        <v>184.5415830612183</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>187.9914045333862</v>
+        <v>185.1267099380493</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>188.0419254302979</v>
+        <v>186.5918636322021</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>185.2278709411621</v>
+        <v>181.5910339355469</v>
       </c>
       <c r="G247" t="n">
         <v>0.9318181818181818</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>185.3687167167664</v>
+        <v>181.7185878753662</v>
       </c>
       <c r="G248" t="n">
         <v>0.9614583333333333</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>185.7413053512573</v>
+        <v>183.1098198890686</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>186.3017082214355</v>
+        <v>184.4373941421509</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>187.7459287643433</v>
+        <v>184.8940849304199</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>188.4111166000366</v>
+        <v>186.1518621444702</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>188.8058185577393</v>
+        <v>186.4497661590576</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
